--- a/Result/Preprocessed Data Science and Big Data Viet Nam.xlsx
+++ b/Result/Preprocessed Data Science and Big Data Viet Nam.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranc\OneDrive\Documents\GitHub\PythonScrapJob\Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>post descriptions</t>
-  </si>
-  <si>
-    <t>Hello Guys,
-Are you willing to get certified professional on emerging technologies like IoT, Machine Learning, Deep learning &amp; AI, Data Science, Big Data Hadoop, DevOps, Microsoft Azure, AWS or PMP.
-Please drop your Email ID &amp; Phone number. Or fill this form: https://goo.gl/forms/wTpQK484v9aXKloI2 or whatsapp on +91-8849157686</t>
-  </si>
-  <si>
-    <t>[SHARE] EBook Python for Data Science For Dummies !
-- Bao gồm các nguyên tắc cơ bản của lập trình và thống kê phân tích dữ liệu Python để giúp bạn xây dựng nền tảng vững chắc trong các khái niệm khoa học dữ liệu như xác suất, phân phối ngẫu nhiên, kiểm tra giả thuyết và mô hình hồi quy.
-- Giải thích các đối tượng, chức năng, mô-đun và thư viện và vai trò của chúng trong phân tích dữ liệu.
-- Đưa bạn qua một số thư viện được sử dụng rộng rãi nhất, bao gồm NumPy, SciPy, BeautifulSoup, Pandas và MatPlobLib.
-LINK TẢI MIỄN PHÍ: https://goo. gl/b4FG71
-THAM GIA GROUP THẢO LUẬN: https://goo. gl/nJYYrF
-LƯU Ý: BỎ KHOẢNG TRẮNG SAU DẤU CHẤM RA NHÉ !</t>
   </si>
   <si>
     <t>[HCM] IT back end, front end, scrum master, data engineer📣📣📣
@@ -53,36 +44,6 @@
 This will probably your huge chance to dive into Data Science realm, if our vacancies interest you enough, please donot hesitate to contact me and send your CV through: suong.nguyen@sai-digital.com</t>
   </si>
   <si>
-    <t>[SHARE] Ebook Data Science Với R: Hướng Dẫn Từng Bước Với Các Ví Dụ Và Minh Họa Trực Quan !
-Khoa học dữ liệu (Data Science) dự kiến sẽ tiếp tục phát triển nhanh chóng trong vài năm tới và Nhà khoa học dữ liệu luôn được đánh giá là nghề nghiệp hàng đầu và có thu nhập thuộc top đầu của thế giới.
-Cuốn sách hướng dẫn bạn thông qua tất cả các khái niệm quan trọng về khoa học dữ liệu bao gồm ngôn ngữ lập trình R, Khai thác dữ liệu, Phân cụm, Phân loại và Dự đoán, Hadoop framework và hơn thế nữa...
-LINK TẢI: https://goo. gl/2HhqrM
-THAM GIA GROUP THẢO LUẬN: https://goo. gl/nJYYrF
-LƯU Ý: BỎ KHOẢNG TRẮNG SAU DẤU CHẤM RA NHÉ !</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học Toàn Diện Về Python Cho Data Science Và Machine Learning !
-LINK TẢI: https://goo. gl/wcdxsj
-LƯU Ý: BỎ KHOẢNG TRẮNG SAU DẤU CHẤM RA NHÉ !
-Trong khóa học này, bạn sẽ học về:
-+ Sử dụng Python cho Data Science và Machine Learning.
-+ Sử dụng Spark để phân tích dữ liệu lớn (Big data).
-+ Thực hiện các thuật toán học máy.
-+ Tìm hiểu cách sử dụng NumPy cho dữ liệu số.
-+ Tìm hiểu cách sử dụng Pandas để phân tích dữ liệu.
-+ Tìm hiểu cách sử dụng Matplotlib cho Python Plotting.
-+ Tìm hiểu để sử dụng Seaborn cho các lô thống kê.
-+ Use Plotly for interactive dynamic visualizations.
-+ Sử dụng SciKit-Learn cho các nhiệm vụ học máy.
-+ K-Means Clustering.
-+ Logistic Regression.
-+ Hồi quy tuyến tính.
-+ Random Forest and Decision Trees.
-+ Natural Language Processing and Spam Filters.
-+ Neural Networks.
-+ Support Vector Machines.</t>
-  </si>
-  <si>
     <t>[HÀ NỘI]
 Velacorp tuyển #Data_Warehouse_Developer
 Lương từ 9 - 14 triệu
@@ -94,11 +55,6 @@
 -------------------------------------------------------------------
 CV gửi về email: hr@velacorp.vn hoặc vuthihuyenmy@velacorp.vn
 Skype: huyenmyvu2110</t>
-  </si>
-  <si>
-    <t>New Year Resolution,
-Start Learning Python Programming..
-No Prerequisites, Use Python for Data Science, Machine Learning, Web Development, Automation, IoT, Games, AI, GUI More..</t>
   </si>
   <si>
     <t>[HCM][HIIP ASIA] HOT JOB DÀNH CHO TỪ FRESHER TRỞ LÊN
@@ -133,15 +89,6 @@
 Cảm ơn mọi người!</t>
   </si>
   <si>
-    <t>Hi All,
-If you are really keen on learning Machine Learning and Deep Learning and become a Data scientist, here are video tutorials created. I regularly upload videos on these playlist. Below are the playlist URL and I hope u like it.
-Machine learning: https://m.youtube.com/playlist…
-Statistics in ML
-https://m.youtube.com/playlist…
-Feature Engineering
-https://m.youtube.com/playlist…</t>
-  </si>
-  <si>
     <t>Viện Nghiên cứu ứng dụng Công nghệ CMC thuộc Tập đoàn Công nghệ CMC tìm kiếm một số vị trí Chuyên viên/Nghiên cứu sinh/Thực tập sinh nghiên cứu BigData, AI, Blockchain, IoT/Robotics tại Hà Nội.
 Em xin phép chia sẻ thông tin, rất mong Anh/Chị trong group quan tâm.
 ► Chuyên viên Nghiên cứu Smart Camera
@@ -154,58 +101,6 @@
 ► Thực tập sinh/Nghiên cứu sinh Nghiên cứu BlockChain
 Chi tiết thông tin tham khảo tại: https://www.cmc.com.vn/vi/co-hoi-nghe-nghiep
 Cảm ơn Anh/Chị.</t>
-  </si>
-  <si>
-    <t>Nhóm chuyên về jobs AI &amp; Data Science:
-#DevJobs
-https://www.facebook.com/groups/AIDataScienceBigData/</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học Trí Tuệ Nhân Tạo Từ A Đến Z - Tìm Hiểu Cách Xây Dựng AI !
-- Trong khóa học toàn diện này, bạn sẽ học cách kết hợp sức mạnh của Data Science, Machine Learning và Deep Learning sâu để tạo ra AI mạnh mẽ cho các ứng dụng trong thế giới thực!
-- Là khóa học về Trí Tuệ Nhân Tạo Rất HOT với hơn 77.000 người đăng ký và hàng ngàn đánh giá 5 sao !
-- Bạn sẽ học cách viết code Python từng bước từ đầu, vì thế bạn có thể theo dõi và hiểu chính xác về ý nghĩa của từng dòng code.
-- Bạn cũng sẽ nhận được mã nguồn code Python cho các ứng dụng AI mà bạn xây dựng trong khóa học.
-- Thực hành, xây dựng 3 Mô đun AI khác nhau, giúp bạn sẽ có đủ kỹ năng để xây dựng AI thích nghi với mọi môi trường trong cuộc sống thực.
-LINK TẢI: http://bit. ly/2BzlfBD
-LƯU Ý: BỎ KHOẢNG TRẮNG SAU DẤU CHẤM RA NHÉ !</t>
-  </si>
-  <si>
-    <t>Data Science Algorithms in a Week: Top 7 algorithms for scientific computing, data analysis, and machine learning
-&gt; Use Python and its wide array of machine learning libraries to build predictive models
-&gt; Learn the basics of the 7 most widely used machine learning algorithms within a week
-https://amzn.to/2UBL78N
-(This is an affliate link)</t>
-  </si>
-  <si>
-    <t>Chúc các bạn xung quanh tôi một năm 2019 sức khỏe tiếp tục thành công hơn nữa trên sự nghiệp Data Engineering, Data Mining, Data Science, Bigdata và Data Deeplearning đã chọn!</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học Toàn Diện Về Python Cho Data Science Và Machine Learning.
-- Tìm hiểu cách sử dụng NumPy, Pandas, Seaborn, Matplotlib, Plotly, Scikit-Learn, Machine Learning, Tensorflow, v.v.
-- Với hơn 172 ngàn người đăng ký, 32 ngàn đánh giá 5 sao, hơn 100 bài giảng video HD và có kèm theo mã nguồn chi tiết cho mỗi bài giảng, đây là một trong những khóa học toàn diện nhất về khoa học dữ liệu và học máy trên Udemy!
-LINK TẢI TẢI ĐỂ Ở COMMENT ĐẦU CHO AE NÀO CẦN !</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học Masterclass Data Science Với R - Qua 4 Dự Án Thực Và 8 Nghiên Cứu Điển Hình.
-- Khoa học dữ liệu là công việc " Hot nhất " trên toàn cầu trong năm 2018 - 2019 !
-- Tìm hiểu 4 dự án thực tế và 8 nghiên cứu điển hình trong Data Science.
-- HỖ TRỢ VIETSUB VÀ ENGSUB.
-LINK TẢI ĐỂ Ở COMMENT ĐẦU CHO BẠN NÀO CẦN.</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học Data Science 2018 Toàn Tập - Cơ Bản Đến Chuyên Sâu.
-Khóa Học đào tạo khoa học dữ liệu hoàn chỉnh và toàn diện: Toán học, Khoa học thống kê, Python, Thống kê nâng cao trong Python, Machine &amp; Deep Learning...
-+ Khóa học cung cấp toàn bộ các công cụ bạn cần để trở thành một nhà khoa học dữ liệu toàn diện.
-+ Điền vào sơ yếu lý lịch của bạn với các kỹ năng khoa học dữ liệu theo yêu cầu: Phân tích thống kê, lập trình Python với NumPy, pandas, matplotlib và Seaborn, Phân tích thống kê nâng cao, Tableau, Machine Learning với các mô hình thống kê, Deep learning với TensorFlow
-+ Tìm hiểu về pre-process data.
-+ Hiểu toán học đằng sau Machine Learning (một điều tuyệt đối mà các khóa học khác không dạy!).
-+ Bắt đầu viết code bằng Python và tìm hiểu cách sử dụng python để phân tích thống kê.
-+ Thực hiện hồi quy tuyến tính và logistic trong Python.
-+ Có thể tạo các thuật toán Machine Learning trong Python, sử dụng NumPy, statsmodels và scikit-learn.
-+ Sử dụng các framework Deep Learning tiên tiến như TensorFlow của Google, Phát triển trực giác kinh doanh trong khi mã hóa và giải quyết các nhiệm vụ với dữ liệu lớn.
-LINK TẢI MIỄN PHÍ: https://goo. gl/62eaev
-LƯU Ý: BỎ KHOẢNG TRẮNG SAU DẤU CHẤM RA NHÉ !</t>
   </si>
   <si>
     <t>#TrustingSocial #DataScientist
@@ -288,25 +183,6 @@
 - #Skype: +84964596639</t>
   </si>
   <si>
-    <t>Chia sẻ khóa học miễn phí "Learn Graphs and Social Network Analytics" của Udemy.
-Bạn sẽ được học cách dùng Python để phân tích đồ thị và các mạng xã hội. Chưa biết Python vẫn học được luôn nha.
-Đã miễn phí lại còn có certificate để "khoe hàng".
-Thùy link "nằm" đây: http://bit.ly/2BA8RRQ</t>
-  </si>
-  <si>
-    <t>Applied Data Science with Python
-&gt; Analyze the connectivity of a social network
-&gt; Conduct an inferential statistical analysis
-&gt; Discern whether a data visualization is good or bad
-&gt; Enhance a data analysis with applied machine learning</t>
-  </si>
-  <si>
-    <t>Heard In Data Science Interviews: Over 650 Most Commonly Asked Interview Questions &amp; Answers
-#datascience #datasciences #datasciencetraining #datascienceworkshop #datascienceeducation #datasciencecourse
-https://amzn.to/2QOKrxA
-(This is an affliate link)</t>
-  </si>
-  <si>
     <t>TUYỂN DỤNG NHÂN SỰ VIETTEL TELECOM
 🔷 Vị trí tuyển dụng:
 🔸 Chuyên viên phân tích dữ liệu, data scientist
@@ -327,67 +203,6 @@
 🔸 Gửi CV về địa chỉ: trungnv42@viettel.com.vn
 🔸 Mọi thắc mắc xin liên hệ: 036.2886.458 (Mr. Trung)
 🔸 Địa chỉ: tầng 42, Keangnam Hanoi Landmark Tower, Phạm Hùng, Mễ Trì, Nam Từ Liêm, Hà Nội</t>
-  </si>
-  <si>
-    <t>15 Nhóm IT có &gt; 20.000 Dev Tham Gia:
-☆☆☆☆☆♡♡♡♡♡☆☆☆☆☆
-1. IT Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/viettalents/
-2. AI, Data Science, Big Data Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/AIDataScienceBigData/
-3. Blockchain Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/BlockchainJobsinAsia/
-4. PHP, MySQL Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/LaravelJobs/
-5. Java, Android Dev/Jobs in Asian &amp; Vietnam
-https://www.facebook.com/groups/JavaAndroidJobs/
-6. .Net, C# Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/dotNetCshapJobs/
-7. Javascript, Nodejs, Angularjs Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/JavascriptJobs/
-8. Python, Ruby Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/PythonRubyJobs/
-9. 日本のIT求人 - IT Jobs in Japan
-https://www.facebook.com/groups/ITJobsinJapan/
-10. IOS, Mobile App Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/IOSMobileJobs/
-11. Tester, QA Jobs in Asian &amp; Vietnam
-https://www.facebook.com/groups/TesterQAJobs/
-12. DevOps, Sysadmin Dev/Jobs in Asian &amp; Vietnam
-https://www.facebook.com/groups/DevOpsSysadminJobs/
-13. C C++ Dev/Jobs in Asia &amp; Vietnam
-https://www.facebook.com/groups/CJobsGlobal/
-14. IT Freelance/Remote Works
-https://www.facebook.com/groups/ITFreelanceJobs/
-15. TOTgo - Tech Open Talk
-https://www.facebook.com/groups/TOTgo/
-@Groups Administrator by DevJobs Global: https://www.facebook.com/DevJobsGlobal/
-http://devjobs.co | #1 Vietnam | IT Jobs Website
-#DevJobs #ITjobs #DevOps #BrSe #DataScience #SoftwareEngineer
-#Java #PHP #Nodejs #Angularjs #Reactjs #Javascript #Android #IOS #Python #Frontend #Backend #Ruby #Tester #Blockchain #BigData #Machinelearning #ReactNative #Sysadmin #HTML5 #FullStack</t>
-  </si>
-  <si>
-    <t>Vicohub hiện đang tổ chức những khóa học online/offline như trong hình (xem hình). Và sẽ tổng khai giảng các lớp học online vào tháng 2/2019 (sau Tết Nguyên Đán). Các bạn tìm hiểu thêm thông tin và đăng ký ở đây:
-https://goo.gl/forms/6cQWIGDTPEiLObvB2
-Và đây là những người vicohub đã mời được để tham gia hướng dẫn các khóa học (mình chỉ liệt kê một số):
-TS. Nguyễn Văn Trung (Data Scientist, Suncorp, Australia)
-TS. Vũ Quang Hiếu (Data Scientist, Zalora, Vietnam)
-ThS Phạm Thành Lâm (Lead Data Scientist, VNG Datalabs, Vietnam)
-ThS Quang Duong (Data Scientist, FDM Group, Canada)
-TS. Võ Duy Tín (Data Scientist, Chata.ai, Canada)
-TS. Tràn Vũ Khanh (Researcher, Australia)
-TS. Nhân Nguyễn (Big Data Engineer, Viaplay, Sweden)
-TS. Nguyễn Thành Kiên (Queensland University of Technology, Úc),
-TS. Lino Coria (Wiivv, Canada)
-TS. Cao Tiến Dũng (Lecturer, Tan Tao University, Vietnam)
-TS. Trần Duy Hiến (Lecturer, Tan Tao University, Vietnam)
-TS. Nguyễn Phúc Sơn (Lecturer, University of Economics and Law, Vietnam)
-TS. Quản Thành Thơ (Lecturer, Ho Chi Minh University of Technology, Vietnam)
-TS. Trần Anh Tuấn (Lecturer, Ho Chi Minh City University of Science, Vietnam)
-TS. Nguyễn Nhu Văn (Phap)
-Phuong V. Huynh (Big Data Lead, ZaloPay, Vietnam)
-Kỹ sư Nguyễn Trọng Tuệ (Trusting Social, Vietnam)
-Kỹ sư Trần Đào Huy Cường (Axon Active, Vietnam)</t>
   </si>
   <si>
     <t>TMA INNOVATION CENTER cần tuyển và đào tạo Software Developer trở thành R&amp;D Engineer cho lĩnh vực vực Data Science, AI/ML và Blockchain
@@ -447,85 +262,6 @@
 Liên hệ qua IB FB hoặc email: phantruongthanh89@gmail.com để biết thêm chi tiết.</t>
   </si>
   <si>
-    <t>Chia Sẻ Khóa Học Thực Hành Toàn Diện nhất Về Data Science, Deep Learning Và Machine Learning Với Python.
-- Hoàn thành khóa học thực hành toàn diện nhất về data science, machine learning, deep learning, Tensorflow, trí tuệ nhân tạo và neural networks.
-- Khóa học bao gồm hơn 80 bài giảng kéo dài 12 giờ video và hầu hết các chủ đề đều kèm theo các ví dụ mã nguồn Python thực hành mà bạn có thể sử dụng để tham khảo và thực hành.
-- Là khóa học được săn đón và tìm kiếm nhiều nhất trên Udemy với hơn 78 ngàn người đăng ký và hàng ngàn đánh giá 5 sao !
-LINK TẢI ĐỂ Ở COMMENT ĐẦU CHO AE NÀO CẦN NHÉ !</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học SQL - MySQL Cho Data Analytics Và Business Intelligence.
-+ Trở thành một chuyên gia về SQL.
-+ Tìm hiểu cách viết mã bằng SQL.
-+ Làm sáng sơ yếu lý lịch của bạn với nhà tuyển dụng.
-+ Tạo, thiết kế và vận hành với cơ sở dữ liệu SQL.
-+ Bắt đầu sử dụng MySQL - Hệ thống quản lý cơ sở dữ liệu số 1.
-+ Trang bị kỹ năng cho nhà phát triển SQL, quản trị viên cơ sở dữ liệu, Chuyên viên phân tích nghiệp vụ và cơ hội việc làm Business Intelligence.
-+ Nắm được những kỹ năng lý thuyết về cơ sở dữ liệu quan hệ.
-+ Làm việc với cơ sở dữ liệu thực tế và phức tạp trong suốt khóa học.
-+ Chuẩn bị tốt nhất cho việc quản lý cơ sở dữ liệu thực tế.
-+ Thêm các công cụ phân tích dữ liệu vào bộ kỹ năng của bạn.
-+ Phát triển trực giác kinh doanh trong khi giải quyết các nhiệm vụ với dữ liệu lớn.
-+ Nghiên cứu lý thuyết quản lý cơ sở dữ liệu quan hệ mà bạn sẽ cần tại nơi làm việc của bạn mỗi ngày.
-+ Tìm hiểu cách tạo cơ sở dữ liệu từ đầu.
-+ Khả năng kiểm soát tập dữ liệu của bạn - chèn, cập nhật và xóa hồ sơ khỏi cơ sở dữ liệu của bạn.
-+ Hãy tự tin khi làm việc với các ràng buộc và các bảng dữ liệu liên quan.
-+ Trở thành người dùng MySQL Workbench thành thạo.
-+ Có được các kỹ thuật mã hóa hàng đầu và các thực tiễn tốt nhất.
-+ Biết cách trả lời các câu hỏi kinh doanh cụ thể bằng cách sử dụng các hàm tổng hợp của SQL.
-+ Xử lý các SQL phức tạp dễ dàng.
-+ Tiếp cận các chủ đề nâng cao hơn trong lập trình như Trigger, sequence, biến cục bộ và biến toàn cục, chỉ mục và hơn thế nữa.
-+ Hợp nhất các kỹ năng mã hóa và sự nhạy bén trong kinh doanh để giải quyết các vấn đề phân tích phức tạp.
-+ Trở thành người dùng SQL thành thạo bằng cách viết các truy vấn hoàn hảo và hiệu quả.
-+ Hàng tấn bài tập sẽ củng cố kiến thức của bạn.
-+ Tự do truy vấn bất cứ điều gì bạn thích từ cơ sở dữ liệu...
-LINK TẢI MIỄN PHÍ KHÓA HỌC (195$) DƯỚI BÌNH LUẬN ĐẦU NHÉ !</t>
-  </si>
-  <si>
-    <t>Chia Sẻ với anh em Khóa Học Data Science 2018 Toàn Tập - Cơ Bản Đến Chuyên Sâu.
-Khóa Học đào tạo khoa học dữ liệu hoàn chỉnh và toàn diện: Toán học, Khoa học thống kê, Python, Thống kê nâng cao trong Python, Machine &amp; Deep Learning...
-+ Khóa học cung cấp toàn bộ các công cụ bạn cần để trở thành một nhà khoa học dữ liệu toàn diện.
-+ Điền vào sơ yếu lý lịch của bạn với các kỹ năng khoa học dữ liệu theo yêu cầu: Phân tích thống kê, lập trình Python với NumPy, pandas, matplotlib và Seaborn, Phân tích thống kê nâng cao, Tableau, Machine Learning với các mô hình thống kê, Deep learning với TensorFlow
-+ Tìm hiểu về pre-process data.
-+ Hiểu toán học đằng sau Machine Learning (một điều tuyệt đối mà các khóa học khác không dạy!).
-+ Bắt đầu viết code bằng Python và tìm hiểu cách sử dụng python để phân tích thống kê.
-+ Thực hiện hồi quy tuyến tính và logistic trong Python.
-+ Có thể tạo các thuật toán Machine Learning trong Python, sử dụng NumPy, statsmodels và scikit-learn.
-+ Sử dụng các framework Deep Learning tiên tiến như TensorFlow của Google, Phát triển trực giác kinh doanh trong khi mã hóa và giải quyết các nhiệm vụ với dữ liệu lớn.
-LINK TẢI MIỄN PHÍ DƯỚI COMMENT ĐẦU NHÉ AE !</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học Masterclass Data Science Với R - Qua 4 Dự Án Thực Và 8 Nghiên Cứu Điển Hình.
-- Tên khóa học: Data Science Masterclass With R! 4 Projects+8 Case Studies.
-- Khoa học dữ liệu là công việc " Hot nhất " trên toàn cầu trong năm 2018 - 2019 !
-- Tìm hiểu 4 dự án thực tế và 8 nghiên cứu điển hình trong Data Science.
-- HỖ TRỢ VIETSUB VÀ ENGSUB.
-LINK DOWNLOAD ĐỂ Ở COMMENT ĐẦU NHÉ !</t>
-  </si>
-  <si>
-    <t>SQL for Data Science
-&gt;Getting Started and Selecting &amp; Retrieving Data with SQL
-&gt;Filtering, Sorting, and Calculating Data with SQL
-&gt; Subqueries and Joins in SQL
-&gt; Modifying and Analyzing Data with SQL</t>
-  </si>
-  <si>
-    <t>Enroll today for Data Science online training and give your career a magnificent height...
-Course Link: http://bit.ly/data_science_igmguru
-#dataScience #machineLearning #artificialIntelligence #technology #future #InformationTechnology #learning #eLearning #onlineTraining #corporateTraining #igmguru</t>
-  </si>
-  <si>
-    <t>Join The Data Incubator and Zoubin Ghahramani, Chief Scientist of Uber, for the next installment of our free online webinar series, Data Science in 30 Minutes: Uber's Chief Scientist Explores Frontiers of Machine Learning and AI
-December 19th @ 5:30pm - Sign up on Eventbrite https://bit.ly/2ByHLfh
-Zoubin will review fundamental concepts and recent advances in artificial intelligence. He will then highlight some areas of research at the frontiers, touching on topics such as deep learning, probabilistic programming, Bayesian optimisation, and AI for data science. Finally, he will describe how these areas fit into Uber's mission.</t>
-  </si>
-  <si>
-    <t>Power BI A-Z: Hands-On Power BI Training For Data Science!
-&gt;Connect Microsoft Power BI to data sources
-&gt;Create Donut Charts
-&gt;Create Treemaps</t>
-  </si>
-  <si>
     <t>HOT JOB DÀNH CHO TỪ FRESHER TRỞ LÊN
 #DATASCIENTIST #DATAENGINEER
 Cơ hội duy nhất trong năm dành cho các bạn từ Fresher để tham gia vào:
@@ -537,12 +273,6 @@
 Biết thêm thông tin thì liên hệ ai?--&gt; Việt - HR của Hiip nè. Email: viet.truong@hiip.asia, Skype: viettruong277@gmail.com. Việt sẵn sàng trả lời các thắc mắc của các bạn trên tất cả các mặt trận. :D
 Thanks cả nhà ❤
 #Hiip( http://hiip.asia/)</t>
-  </si>
-  <si>
-    <t>SETScholars Analytics: Practical Data Science for ALL</t>
-  </si>
-  <si>
-    <t>Tìm bạn học ngành Business Analyst hoặc ngành Data Science để kết hợp làm dự án giáo dục nhé</t>
   </si>
   <si>
     <t>[HCM] Data Scientist (maximum around 2500$) - Product (Live, Video Streaming Platform)
@@ -562,37 +292,6 @@
 Thanks all</t>
   </si>
   <si>
-    <t>Learn Data Science from DATA Analytics With Real time Scenarios.
-Mode: Online/ Classroom training on weekdays/Weekends
-Call Us @ +91-9705253548
-Benefits:-
-We are providing not only training and other benefits also.
-• We are providing good training with Real time experts compared to other training centers.
-• 100% job oriented program.
-• Resume preparation
-• 100% job Support till we will get a job
-• In case we get a job if you Have trouble with real time projects We will also support for two to three months.
-• We are providing training on mostly real time Scenarios.
-• If you need any information please contact with us.
-https://chat.whatsapp.com/EJBb2CyJfqr8p8MEizlE9G</t>
-  </si>
-  <si>
-    <t>Chia Sẻ Khóa Học Data Science Từ A-Z Qua Các Bài Tập Thực Tế.
-- Tìm hiểu tất tần tật các kiến thực toàn diện nhất về Data Science, từ cơ bản đến nâng cao bằng việc hoàn thành rất nhiều các bài tập thực tế. Tìm hiểu về Data Mining, Modeling, Tableau Visualization, và còn rất nhiều nữa.
-- Là một trong những khóa học online về Data Science được chú ý và tìm kiếm nhiều nhất với hàng trăm ngàn người đã đăng ký và hàng ngàn đánh giá tích cực nhất !
-LINK TẢI ĐỂ Ở COMMENT ĐẦU CHO ANH EM NÀO CẦN !</t>
-  </si>
-  <si>
-    <t>Chào anh chị, mong anh chị tư vấn giúp em về resource học data analyst, em cần tìm hiểu gì thêm để có thể xin được internship
-Em xin nói sơ qua về education vs experience của em
-1. E có bằng bachelor về business ở ktqd
-2. E sẽ tốt nghiệp master về digital media ( thuộc computer science faculty) vào tháng 9 này
-3. Em hoàn thành khoá online của datacamp và udacity, hiện đang bắt tay làm project trên kaggle
-4. Em có tự học basic statistic and probability
-... anh chị tư vấn giúp em những kiến thức cần có thêm và nguồn để tự học được không ạ. Hoặc khoá học online uy tín cũng được ạ
-Em xin cảm ơn anh chị</t>
-  </si>
-  <si>
     <t>#Viettel #DataEngineer #Hanoi #Fresher #Junior
 Hi all,
 Bên mình (Viettel Cyberspace Center, đơn vị công nghệ trực thuộc Viettel Group) đang cần tìm 2 bạn Data Engineer Fresher/ Junior về đào tạo tại đơn vị với 1 số thông tin cơ bản:
@@ -609,114 +308,6 @@
 Cảm ơn mọi người đã đọc tin. :')</t>
   </si>
   <si>
-    <t>Hi all join Join Free Data Science demo at @ 8:00 pm.
-Hi,
-Greetings from Limles Technologies.
-We will conduct the demo session on Data Science on 08/12/2018 @ 8:00 pm
-Please find the below invitation link.
-Demo On DataScience From Limles Technologies
-Sat, Dec 8, 2018 8:00 PM - 9:30 PM IST
-Please join my meeting from your computer, tablet or smartphone.
-https://global.gotomeeting.com/join/968553853
-You can also dial in using your phone.
-United States: +1 (408) 650-3123
-Access Code: 968-553-853</t>
-  </si>
-  <si>
-    <t>If your experts (Statistician &amp; Machine Learning Engineer) are carefully solving the wrong problems, your investment in data science will suffer low returns.
-Discuss?</t>
-  </si>
-  <si>
-    <t>LEARN Hadoop Development from BigData Architect with real time scenario's at free of cost.
-https://chat.whatsapp.com/K37B8h1iuHeIJwhH2XkrAB</t>
-  </si>
-  <si>
-    <t>Sắp tới ZALORA sẽ có 1 buổi Workshop chia sẻ về Webpack, kết hợp cùng với Shecodes Vietnam (event welcome tất cả các bạn nam nữ nhé). Đây là chuỗi Workshop của ZALORA trong năm nay tiếp nối 2 events vào tháng 10 và 11 tại Singapore và Malaysia cùng Women Who Code. Bạn nào có hứng thú thì có thể đăng ký tham gia nhé, ZALORA có chuẩn bị quà dành cho các bạn.
-Nhân đây thì cũng xin chia sẻ team mình đang tìm kiếm Frontend Developer, Backend Developer, Data Engineer và Data Scientist. Mọi chi tiết các bạn có thể xem thêm tại http://jobs.zalora.com/ hoặc liên hệ với Phương qua emai phuong.huynh@zalora.com/tech-hiring@zalora.com
-Hi vọng gặp mọi người ở văn phòng ZALORA ngày 19 này!</t>
-  </si>
-  <si>
-    <t>Class basic 1: Phân tích dữ liệu cơ bản - Điều bạn CẦN NHẤT KHI NHẬP MÔN PHÂN TÍCH DỮ LIỆU
-----
-Theo tạp chí Forbes của Mỹ, Phân tích dữ liệu là:
-- Công việc quyến rũ nhất thế kỷ 21
-- Mức lương trung bình đạt 110.000 USD trên thế giới.
-- Mức độ hài lòng đạt 4,2/5 – top 5 công việc có độ hài lòng cao nhất thế giới
-- Nhu cầu tuyển dụng Data Analyst tại Việt Nam ngày càng tăng
-Tuy nhiên:
-Tình trạng chung của nhiều bạn khi muốn học bất cứ thứ gì, nhất là PHÂN TÍCH DỮ LIỆU, đó là
-- KHÔNG BIẾT BẮT ĐẦU TỪ ĐÂU?
-- KHÔNG BIẾT HỌC CÁI NÀO TRƯỚC?
-- KHÔNG BIẾT NÊN HỌC NHỮNG GÌ CHO NGƯỜI MỚI?
-- KHÔNG BIẾT HỌC Ở ĐÂU?
-- KHÔNG BIẾT HỌC AI?
-Chính vì thế, khá nhiều người đã bị chán nản ngay từ khi bắt đầu tìm hiểu.
-Tại sao bạn cần CLASS BASIC 1: PHÂN TÍCH DỮ LIỆU CƠ BẢN?
-- Có LỘ TRÌNH HỌC RÕ RÀNG trong 10 buổi
-- Cam kết CÓ KHẢ NĂNG XỬ LÝ VÀ PHÂN TÍCH DỮ LIỆU khi kết thúc khóa học
-- Giảng viên là những người có KINH NGHIỆM công tác
-- CHỈ NHẬN DUY NHẤT 15 HỌC VIÊN
-- Được TƯƠNG TÁC TRỰC TIẾP với giảng viên
-- PHẦN QUÀ CỰC KỲ KHỦNG khi kết thúc lớp học:
-+ Nhận ngay CHỨNG CHỈ TỐT NGHIỆP của ARCenter
-+ Nhận ngay HỌC BỔNG TOÀN PHẦN lớp ADVANCED cho học viên XUẤT SẮC nhất
-+ Cơ hội được giới thiệu việc làm tại các đơn vị nổi tiếng và uy tín
-+ Cơ hội được ứng tuyển vào những vị trí với mức lương KHỦNG
-- Được giảng viên HỖ TRỢ NHIỆT TÌNH kể cả sau khi HOÀN THÀNH KHÓA HỌC của ARCenter
-----
-Số lượng ghế trống đang ngày càng ít, nhanh tay đăng ký ngay cho mình một chỗ trước khi lớp FULL HỌC VIÊN. Link đăng ký: https://goo.gl/forms/MRrG9lfoznS7XIgt2
-----
-Lộ trình lớp học:
-Buổi 1. Tổng quan về Data Science, Ưng dụng và các hướng phát triển
-Buổi 2. Cơ sở dữ liệu, kiến thức chung về cơ sở dữ liệu. Giới thiệu về SQL
-Buổi 3. Khai thác dữ liệu từ csdl
-Buổi 4. Python và Python trong Data Science
-Buổi 5. Data Visualization
-Buổi 6. ML cơ bản: Superviser/Unsuperviser Learning
-Buổi 7. Superviser Learning, các thuật toán căn bản nhất. Case dự báo lượng cầu/ giá nhà...
-Buổi 8. Unsuperviser Learning, các thuật toán, ứng dụng phổ biến
-Buổi 9. Bài tập lớn: Đưa ra một đề tài cho các học viên thực hiện, đi qua hết các bước từ việc lưu trữ dữ liệu cho tới việc
-khai thác và sử dụng cho ML.
-Buổi 10. Giải đáp thắc mắc, vướng mắc trong quá trình thực hiện bài tập lớp. TRAO QUÀ và GIẤY CHỨNG NHẬN cuối khóa.
-Không chỉ vậy, học viên sẽ có cơ hội được học thêm một số học phần bổ sung như: Economics model, Ethics in Data Science... HOÀN TOÀN MIỄN PHÍ!!
-----
-Lịch khai giảng:
-Lớp học sẽ khai giảng vào thứ 5 ngày 13/12/2018
-Số buổi học: 10 buổi
-Thời gian học: Thứ 3 và thứ 5 hàng tuần từ 19h-21h
-Địa điểm: Tầng 6, Nhà C, tòa nhà số 22, Thành Công (đối diện công an Phường, đoạn phố gần Đê La Thành)
------
-Học phí: 3.499.000đ
-ƯU ĐÃI KHỦNG: Khóa học 3.499k sẽ chỉ còn 2.999k với chương trình ưu đãi khủng của ARCenter:
-- GIẢM NGAY 200k nếu như đăng ký trước ngày 8/12
-- GIẢM NGAY 100K cho MỖI NGƯỜI nếu đăng ký theo nhóm
-- GIẢM NGAY 200k nếu bạn đang là sinh viên
-- ĐẶC BIỆT tặng ngay HỌC BỔNG trị giá 500k nếu như bạn đang là sinh viên chuyên ngành Toán hoặc tốt nghiệp XUẤT SẮC
-----
-Bạn sẽ được học với ai?
-1. Anh: Quý Nguyễn
-- TRƯỞNG PHÒNG QUẢN TRỊ VÀ PHÂN TÍCH DỮ LIỆU - Công ty cổ phần và đầu tư công nghệ Vela
-- Từng là CHUYÊN VIÊN CAO CẤP PHÂN TÍCH DỮ LIỆU của TẬP ĐOÀN VINGROUP
-- 3 năm kinh nghiệm trong lĩnh vực Phân tích dữ liệu
-2. Chị: Nguyễn Khắc Thị Kim Oanh
-- Học bổng quốc tế toàn phần về ĐẦU TƯ VÀ RỦI RO TÀI CHÍNH trường Westminster
-- Credit portfolio Analysis Senior Officer MARITIME BANK
-- 4 năm kinh nghiệm trong lĩnh vực Phân tích dữ liệu
-----
-Nếu muốn trở thành CHUYÊN GIA TRONG LĨNH VỰC PHÂN TÍCH DỮ LIỆU với mức lương lên tới TRĂM NGHÌN ĐÔ LA/năm thì đừng bỏ lỡ cơ hội này mà ĐĂNG KÝ ngay. Click ngay vào link đăng ký: https://goo.gl/forms/MRrG9lfoznS7XIgt2
-Bạn có thể đăng ký trực tiếp qua fanpage hoặc gọi điện tới hotlines.
-------------------------------------
-ARCenter - Trung tâm phân tích và nghiên cứu dữ liệu
-⧫ Hotlines: 0393.567.467 (Mr. Đăng), 0931585369 (Mr. Quý)
-⧫ Mail: arcenter.vn@gmail.com
-⧫ Fanpage : https://www.facebook.com/arcenter.vn/</t>
-  </si>
-  <si>
-    <t>KHÓA HỌC DATA VISUALIZATION WITH R (ggplot2) TẠI ĐẠI HỌC HÀ NỘI- Phù hợp với các bạn mới bắt đầu hoặc đang tìm hiểu về Data Science.
-Khóa học từ cơ bản đến nâng cao về data visualization với thư viện graphics nổi tiếng của ngôn ngữ R: ggplot2. Khóa học không yêu cầu background về R hay lập trình. Giảng viên đã có trên 12 kinh nghiệm giảng dạy Thống kê tại Đại học Hà Nội và đã từng có kinh nghiệm giảng dạy tại Đại học Venice (Ý) và Đại học công nghệ Sydney (Úc). Ngày khai giảng dự kiến: 22/12/2018.
-Nếu bạn quan tâm, bạn vui lòng tìm hiểu thông tin chi tiết và đăng ký học tại trang sau: https://www.facebook.com/Data.Analysis.With.R</t>
-  </si>
-  <si>
     <t>[HCM] - Công ty truyền thông giải trí POPS Worldwide
 ---
 Cần tìm vị trí: Data Analyst
@@ -732,26 +323,6 @@
 Hoặc add Skype: Quỳnh Phương (Snail) để trao đổi thêm</t>
   </si>
   <si>
-    <t>Learn DataScience from DATA Analytics With Real time Industry Experts.
-Mode: Online/ Classroom training on weekdays/Weekends
-Call Us @ +91-9705253548
-Benefits:-
-We are providing not only training and other benefits also.
-• We are providing good training with Real time experts compared to other training centers.
-• 100% job oriented program.
-• Resume preparation
-• 100% job Support till we will get a job
-• In case we get a job if you Have trouble with real time projects We will also support for two to three months.
-• We are providing training on mostly real time Scenarios.
-• If you need any information please contact with us.
-https://chat.whatsapp.com/EJBb2CyJfqr8p8MEizlE9G</t>
-  </si>
-  <si>
-    <t>Careers in Data Science
-&gt;The basic steps on how to become a Data Scientist
-&gt; How to take their Data Science career to the next level</t>
-  </si>
-  <si>
     <t>AI School tuyển giảng viên, trợ giảng Data Analytics.
 AI School là dự án do các chuyên gia về trí tuệ nhân tạo với nhiều năm kinh nghiệm trong và ngoài nước sáng lập. Dù mới thành lập và chưa đẩy mạnh truyền thông nhưng trung tâm đang phát triển nhanh chóng. Hiện trung tâm đang có nhu cầu tuyển thêm giảng viên dạy các khóa về Data Analytics.
 Công việc: giảng dạy các khóa về Data Analytics cơ bản và nâng cao (ngôn ngữ SQL, Python) của trung tâm.
@@ -761,22 +332,6 @@
 Thanks.</t>
   </si>
   <si>
-    <t>Data Science New York 2019 (Jan 23-24), New York City
-Book your tickets here :</t>
-  </si>
-  <si>
-    <t>Learn the steps about how to run and execute the Website Audit for your business sites.
-#BigData #BigDataAnalytics #WebsiteAudit #BigDataDevelopment #BigDataDevelopmentCompany #BigDataSolutions</t>
-  </si>
-  <si>
-    <t>Chia Sẻ với anh em nào cần, Khóa Học Machine Learning Từ A Đến Z: Thực Hành Với Python &amp; R Trong Data Science.
-- Tên khóa học: Machine Learning A-Z™: Hands-On Python &amp; R In Data Science.
-- Tìm hiểu cách tạo Thuật toán học máy bằng Python và R từ hai chuyên gia về Khoa học dữ liệu.
-- Nếu bạn quan tâm đến lĩnh vực học máy, Thì đây là khóa học tuyệt vời nhất dành cho bạn! Với hơn 330 ngàn người đang ký và hơn 61 ngàn đánh giá 5 sao, bạn sẽ thấy khóa học này tuyệt vời như thế nào !
-- HỖ TRỢ VIETSUB VÀ EN-SUB.
-LINK TẢI ĐỂ Ở COMMENT ĐẦU NHÉ !</t>
-  </si>
-  <si>
     <t>#Zalo tuyển dụng cuối năm 2018 ‼️
 Chào các bạn! Hiện tại Zalo đang open vị trí về #BigData
 ✅ Senior Data Analyst (Zalo Ads)
@@ -784,59 +339,6 @@
 --
 Email: thaodnp@zalo.me
 https://careers.zalo.me</t>
-  </si>
-  <si>
-    <t>Chương Trình "THẠC SĨ NGÀNH KỸ THUẬT PHẦN MỀM"
-Em là Thiên Trang – Phụ trách Tuyển sinh Hệ đào tạo Thạc sĩ ngành Kỹ thuật phần mềm (MSE - Master of Software Engineering).
-Em xin gửi Anh/Chị thông tin về đợt nhập học cuối cùng năm 2018. Hy vọng Anh/Chị quan tâm và có thể sắp xếp được công việc để tham gia khóa học.
-- Thời gian đào tạo: 12 tháng học, 6 tháng làm Luận văn tốt nghiệp. Học tối Thứ 3, 5 và chiều ngày Thứ 7
--------------------------------------------------------------------------
-CƠ HỘI &amp; GIÁ TRỊ
-+ Khung chương trình cập nhật những kiến thức mới nhất theo khung đào tạo được chuyển giao từ ĐH Hoa kỳ. Với các môn học cập nhật xu thế mới về: IoT, Big Data, Data Analytics, AI
-+ Môi trường học tập Quốc tế – học cùng với sinh viên nước ngoài
-+ Bằng chính qui của ĐH FPT (Bộ GD&amp;ĐT cấp phép) – Bằng Thạc sĩ Kỹ thuật Phần mềm
-+ Thời gian học linh động, ngoài giờ hành chính
-+ Tham gia vào nhiều Dự án Doanh nghiệp lớn, Thực hành với các giảng viên giàu kinh nghiệm
-THÔNG TIN TUYỂN SINH
-* Ngày thi tuyển: 15/12/2018
-- Môn Toán và Cơ sở Máy tính
-- Kỹ thuật phần mềm
-- Môn Tiếng anh
-Học phí ôn thi: Miễn phí
-Nếu cần trao đổi thêm thông tin Anh/chị liên hệ với em theo số máy 01635.782.685 (Ms. Trang - Tư vấn)
-Link chương trình: http://mse.fsb.edu.vn/
-Fanpage: https://www.facebook.com/thacsykythuatphanmemfpt/</t>
-  </si>
-  <si>
-    <t>Convert your real-time &amp; chronicled Big Data into insights with the assistance of the NexSoftSys advanced Analytics tool.
-#BigData #BigDataDevelopment #BigDataDevelopmentCompany #BigDataAnalytics #BigDataSolutions #BigDataAnalyticsSolutions</t>
-  </si>
-  <si>
-    <t>Đã có lịch khai giảng chính thức 02 khóa học online 'Machine Learning - Fundamentals' và 'Natural Language Processing with Deep Learning'. Các bạn vẫn có thể đăng ký tiếp nhé:
-- Machine Learning - Fundamentals: 7pm đến 9pm, thứ 7 hàng tuần, khai giảng 15/12/2018
-TS. Trần Huy Đức (Research Fellow, NTU, Singapore)
-TS. Trần Vũ Khanh (Úc)
-Thạc sỹ Quang Duong (Data Scientist, FDM Group, Canada),
-Kỹ sư Trần Đào Huy Cường (Teaching Assistant, Axon Active, Vietnam)
-Link: https://goo.gl/forms/NLAAr2j9zPJaHo1A3
-- Natural Language Processing with Deep Learning: 10am đến 12pm, chủ nhật hàng tuần, khai giảng: 16/12/2018
-TS. Quản Thành Thơ (Lecturer, Ho Chi Minh University of Technology, Vietnam), TS. Duy Tin Vo (Data Scientist, Chata.ai, Canada)
-Link: https://goo.gl/forms/4mUZljNiw9sHys563
-Ngoài ra, Vicohub sẽ tổ chức buổi TechTalk (miễn phí) đầu tiên vào lúc 9am, thứ 6, 7/12/2018 (giờ Việt Nam). Các bạn sẽ có dịp trao đổi cùng TS. Đàm Khánh Hòa với chủ đề 'Artificial Intelligence for Software Engineering'. TS. Hòa hiện đang giảng dạy tại trường đại học Wollongong (UOW), Australia. Nội dung trao đổi bằng tiếng Việt. Các bạn có thể tìm hiểu thông tin chi tiết cũng như đăng ký tham gia theo link dưới đây:
-https://goo.gl/forms/0J1hnDYwOKhfSQdJ2</t>
-  </si>
-  <si>
-    <t>Data Science New York 2019 (Jan 23-24), New York City
-Book your tickets here : http://bit.ly/2OWuepR</t>
-  </si>
-  <si>
-    <t>Grab The Wonderful Opportunity Of Interacting With Analytics Experts By Attending Orien IT Free #DataScience #Workshop on 28th Nov Wednesday @ 7.30 AM &amp;Starts NewBatch On 29th Nov Thursday @ 7.30 AM
-Interested candidates Register Here👇
-===&gt;https://bit.ly/2OYi4Ij
-===&gt;https://tinyurl.com/yd8e3ouf
-For more details
-call: 91-9703202345
-#Datasciencetraining #DataSciencedemo #Hyderabad</t>
   </si>
   <si>
     <t>Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares (VMLS)
@@ -848,188 +350,6 @@
 Về việc post ở các group, chúng tôi chỉ post ở một số group mở, có tính thân thiện. Nhiều group chúng tôi đã post các đề tài khác nhưng bị từ chối, có thể do group quan ngại bị ảnh hưởng đến uy tín của các admin trong group. Chúng tôi không quan tâm lắm đến những việc như vậy nhưng nêu ra đây để các bạn hiểu rõ lý do.
 Thân mến,
 TDQ</t>
-  </si>
-  <si>
-    <t>#DataScience Loop [#INFOGRAPHICS]
-#DataScience #DataAnalytics #Robotics #future #TechTrends #EmergingTechnologies #IIoT #blockchain #DigitalTransformation
-Courses Online: https://www.simpliv.com/search/?seo</t>
-  </si>
-  <si>
-    <t>#BIgData with 8 v's [#INFOGRAPHICS]
-#BigData #AI #infographic #tech #MachineLearning #BigData #IoT #VR #DataScience #blockchain #ArtificialIntelligence #robotics #technology #data #DataAnalytics
-Online Courses: https://www.simpliv.com/search/?seo</t>
-  </si>
-  <si>
-    <t>#Datascience skills for #Analytics #Leader
-#AI #infographic #tech #MachineLearning #BigData #IoT #VR #DataScience #blockchain #ArtificialIntelligence #robotics #technology #data #DataAnalytics
-#technology #Software #MachineLearning #tech #education #stress #DeepLearning #cybersecurity #DataScience #bigdata
-Courses Online: https://www.simpliv.com/search/?seo</t>
-  </si>
-  <si>
-    <t>R Programming : R For Data Science With Real Exercises!
-&gt;Practice working with statistical data in R
-&gt; Practice working with financial data in R
-&gt; Practice working with sports data in R</t>
-  </si>
-  <si>
-    <t>[Thanh Xuân - HN]
-Mình cần tìm 1 bạn Data Analyst có kinh nghiệm làm với Big Data.
-*Lương, thưởng, phúc lợi cực kì hấp dẫn!
-Inbox ngay!</t>
-  </si>
-  <si>
-    <t>Data Science: Natural Language Processing (NLP) in Python
-&gt; Write your own spam detection code in Python
-&gt; Perform latent semantic analysis or latent semantic indexing in Python
-&gt; Write your own sentiment analysis code in Python</t>
-  </si>
-  <si>
-    <t>8 ways #Insurers leverage #BigData + #DataAnalytics
-#technology #Software #MachineLearning #tech #education #stress #DeepLearning #cybersecurity #DataScience #bigdata
-Courses: https://www.simpliv.com/search/?seo</t>
-  </si>
-  <si>
-    <t>Data Science New York 2019 (January 23-24) ,New York City
-Meet the Speaker:
-Michael Simon, Chief of Data Science - Mission Center for Weapons &amp; Counterproliferation, Central Intelligence Agency (CIA)
-Book your tickets here: http://bit.ly/2OWuepR</t>
-  </si>
-  <si>
-    <t>Data Science with R - Best books to become an expertData Science with R - Best books to become an expert</t>
-  </si>
-  <si>
-    <t>Lại thêm một cao thủ tham gia hướng dẫn khóa Machine Learning - Fundamentals: TS. Trần Huy Đức (Research Fellow, Nanyang Technological University, Singapore)
-Thạc sỹ Quang Duong (Data Scientist, FDM Group, Canada),
-TS. Trần Huy Đức (Research Fellow, Nanyang Technological University, Singapore), Kỹ sư Trần Đào Huy Cường (Teaching Assistant, Axon Active, Vietnam) và mình sẽ tổ chức khóa học 'Machine Learning - Fundamentals'. Đây là khóa học online, có thu phí, trong 8 tuần, 2h/1 buổi/1 tuần.
-Khóa học này áp dụng phương pháp top-down: sẽ tập trung vào giải các bài toán cụ thể trong thực tế sử dụng machine learning.
-Dành cho những bạn muốn tìm hiểu về Machine Learning và đã có khả năng lập trình cơ bản với ngôn ngữ Python.
-Thông tin chi tiết ở đây:</t>
-  </si>
-  <si>
-    <t>DATA VISUALIZATION WITH R (ggplot2)
-“The simple graph has brought more information to the data analyst’s mind than any other device.” - John Tukey
-Tháng 12 tới, mình sẽ tổ chức lớp Data visualization with R tại Đại học Hà Nội. Như các bạn đều biết, data visualization đưa các thông tin từ dữ liệu trở thành những hình ảnh trực quan, sinh động để từ đó người sử dụng thu thập được những tri thức có ích cho các mục đích công việc khác nhau. Việc thành thạo phương pháp data visualization sẽ giúp ích và bổ trợ rất nhiều cho các phương pháp phân tích dữ liệu khác như machine learning (học máy) và statistical analysis (phân tích thống kê). Đặc biệt, có những bài toán không cần tới các phương pháp toán học phức tạp như machine learning để giải quyết, nhưng hầu như bài toán nào cũng cần data visualization. Data visualization là một phần quan trọng không thể thiếu của quá trình data exploration, data cleaning, và cả việc trình bày kết quả phân tích của các phương pháp toán học. Do đó, data visualization ngày càng trở thành một xu hướng quan trọng trong khoa học dữ liệu.
-R là ngôn ngữ có thế mạnh nổi trổi về data visualization. Mình thiết kế khóa học nhằm giúp các bạn học viên có được kiến thức và kỹ năng từ cơ bản đến nâng cao về data visualization trong ngôn ngữ R. Khóa học dạy thư viện graphics nổi tiếng của R, ggplot2, nhằm giúp các bạn tạo graphics đẹp và chuyên nghiệp mà có thể tái sử dụng cho nhiều mục đích và hoàn cảnh khác nhau. Khác với các tài liệu chỉ chú trọng vào khía cạnh lập trình, khóa học giữ một sự cân bằng giữa việc học ngôn ngữ R (thư viện ggplot2) và các thành phần khác cũng quan trọng không kém của data visualization: ngữ pháp đồ họa, phương pháp chọn đồ thị phù hợp nhất với bài toán và dữ liệu, cách interpret ý nghĩa của các đồ thị, các guidelines để thiết kế đồ họa hiệu quả, sử dụng màu sắc, và các phương pháp customize đồ thị để có thể xuất bản trong các báo cáo, luận văn, sách, và kể cả các bài báo quốc tế chất lượng cao.
-Ngôn ngữ giảng dạy của khóa học là tiếng Việt. Khóa học không yêu cầu bạn biết trước về R hay lập trình. Ở phần mở đầu của khóa học, mình sẽ ôn tập lại kiến thức R cơ bản cần thiết cho khóa học.
-Các bạn đăng ký học tại link sau: http://bit.ly/DatavizWithR
-Để tìm hiểu thêm thông tin về khóa học và các chính sách ưu đãi học phí, bạn truy cập trang sau nhé: https://www.facebook.com/Data.Analysis.With.R/?ref=bookmarks.</t>
-  </si>
-  <si>
-    <t>Learn #DataScienceCourse From The Learning Analytics Industry Experts &amp; Become An Expert By Join Our Institute #ORIENIT
-Interested aspirants can also avail the ORIENIT
-Click here 👇For Free "Data Science " Demo Session:
-==&gt;https://bit.ly/2NO3KWp
-==&gt;https://lnkd.in/ffC44TF …
-or Call +91-9703202345
-#DataScience #DataScientist #hyderabad</t>
-  </si>
-  <si>
-    <t>HỌC TRÍ TUỆ NHÂN TẠO BẮT ĐẦU TỪ DATA SCIENCE
-Lớp chỉ tuyển 10 bạn và đã có 8 bạn đồng ý về với đội chúng mình !
-CHỈ CÒN 2 SUẤT CHO 2 BẠN MAY MẮN ĐĂNG KÝ TRONG 2 NGÀY ! Đăng ký ngay để tìm hiểu lớp Data Science cho các bạn bắt đầu nhé!</t>
-  </si>
-  <si>
-    <t>BỐI RỐI VÌ KIẾN THỨC MỚI, DEV KHÔNG BIẾT HỌC DATA SCIENCE BẮT ĐẦU TỪ ĐÂU?
-Công nghệ luôn thay đổi, làm dev bối rối trước kiến thức mới.
-Đi làm, bạn có thấy thiếu thời gian khi phải tự học lượng thông tin lớn? Tự lên mạng tìm hiểu nhưng học hoài không thông?
-Học kiến thức mới không chỉ đòi hỏi kiên nhẫn mà còn cần lộ trình rõ ràng và phương pháp học chủ động.
-Nhiều bạn đã tự học thành công nhưng phải trả giá bằng thời gian và cơ hội nghề nghiệp. Đợi đến lúc thời gian vụt trôi lại ngậm ngùi tiếc nuối.
-Rút ngắn thời gian tìm định hướng, Khóa học "Data Science Express" hoàn toàn có thể giúp bạn:
-- Kết hợp học online và offline nhằm rèn luyện cách học chủ động
-- Học kiến thức Data Science căn bản theo giáo trình của Microsoft
-- Có cơ hội hỗ trợ thi lấy chứng chỉ của Microsoft miễn phí
-==============================
-👉Tìm hiểu thêm tại đây: bit.ly/2qtsd5Y</t>
-  </si>
-  <si>
-    <t>Chúc mừng 20-11!!!
-Chúc các thầy cô, các anh chị em đang giảng dạy trong vai trò là nguời truyền kiến thức về BigData, Data Engineering, Data Science một ngày vui tuơi sức khoẻ, tràn đầy năng luợng, nhiệt huyết để tiếp tục sự nghiệp đào tạo vững bền cho tuơng lai con em chúng ta!</t>
-  </si>
-  <si>
-    <t>Check it out why growing utilization of Machine Learning has changed the method for prescriptive analytics @ https://bit.ly/2FHjec3
-#BigData #technologies #Businesses #MachineLearning #AI #BigDataAnalytics #BigDataDevelopment #BigDataDevelopmentCompany</t>
-  </si>
-  <si>
-    <t>Applied Data Science with Python
-&gt; Applied Plotting, Charting &amp; Data Representation in Python
-&gt; Applied Machine Learning in Python
-&gt; Applied Text Mining in Python
-&gt; Applied Social Network Analysis in Python</t>
-  </si>
-  <si>
-    <t>Probability and Statistics for Business and Data Science
-&gt; Understand the basics of probability
-&gt; Understand how to use various statistical distributions
-&gt; Understand how regression models work
-&gt; Implement one way and two way ANOVA</t>
-  </si>
-  <si>
-    <t>[Lập trình Python cơ bản -- giảm giá 20% cho học sinh, sinh viên]
-✔️ Khóa học này là khóa học về lập trình Python cơ bản, dành cho những bạn muốn học về Machine Learning, Data Science, Computer Vision and Natural Language Processing sau này
-✔️ Phù hợp với các bạn học sinh (cấp 3), sinh viên, hay những bạn đã đi làm muốn học về ngôn ngữ lập trình Python
-✔️ Giảm học phí 20% cho các bạn học sinh, sinh viên
-✔️ Học vào thứ 7 và chủ nhật hàng tuần
-✔️ Là khóa học hoàn toàn online
-✔️ Dự kiến khai giảng vào tháng 12/2018
-✔️ Học phí: 1,500,000VNĐ
-Thông tin chi tiết ở đây:
-https://goo.gl/forms/eGgPIs4J131Qt7Gm2
-Bạn nào muốn tìm hiểu về khóa Machine Learning - Fundamentals thì ở đây nhé:
-https://goo.gl/forms/Cwvzf7SSUcHSmbpn2
-Lớp này do Thạc sỹ Quang Duong (Data Scientist, FDM Group, Canada), TS. Trần Huy Đức (Research Fellow, Nanyang Technological University, Singapore), Kỹ sư Trần Đào Huy Cường (Teaching Assistant, Axon Active, Vietnam) phụ trách.</t>
-  </si>
-  <si>
-    <t>Upgrade Your Knowledge Of Analytics Through Expert Guidance By Attending #OrienIT Free #DataScience #Workshop On 17th Nov@ 10 AM
-Register Now:
-https://bit.ly/2ONlKwF
- https://goo.gl/forms/FQAh9oHXArjMTyjf2
-#datasciencetraininginhyderabad #Datasciencecourse #institutes #R #python</t>
-  </si>
-  <si>
-    <t>#BigData Vs #DataScience Vs #DataAnalytics
-Must Watch latest tutorial - https://youtu.be/IV2iqFIuwVA</t>
-  </si>
-  <si>
-    <t>21 tháng 12 này mình sẽ trình bày topic Nuts and Bolts of applying Machine Learning in practice tại Tan Tao University cho lớp Data Science School của anh@Xuan-Ha Nguyen cùng với anh Quang Hieu Vu. Quan điểm của mình là phải luôn luyện tập nên bản thân mình cũng có 1 bài warm up coding like a data scientist để reactivate các neurons mỗi ngày. Xin mời các bạn tham khảo notebook without solution tại đây. Phần đáp án do mình thỉnh thoảng vẫn dùng để live coding interview nên chưa chia sẻ được nhé.
-https://colab.research.google.com/…/1mCPjHLEHTYAkjAv_NPL_C5…
-https://pics.me.me/77-aggg-gaggb-hey-get-a-load-of-the-nerd…
-Happy modeling with love. &lt;3</t>
-  </si>
-  <si>
-    <t>Data Science New York 2019 (January 23-24), New York City
-Meet the Speaker: Dipti Patel-Misra, Chief Data &amp; Analytics Officer, Vituity
-Book your tickets here:</t>
-  </si>
-  <si>
-    <t>Vicohub hiện đang tổ chức những khóa học online/offline như trong hình (xem hình). Bạn nào đi ngang qua thì like cho một phát.
-https://www.facebook.com/vicohub
-Và đây là những người vicohub đã mời được để tham gia hướng dẫn các khóa học (mình chỉ liệt kê một số):
-TS. Nguyễn Văn Trung (Data Scientist, Suncorp, Australia)
-TS. Vũ Quang Hiếu (Data Scientist, Zalora, Vietnam)
-Thạc sỹ Quang Duong (Data Scientist, FDM Group, Canada)
-TS. Duy Tin Vo (Data Scientist, Chata.ai, Canada)
-TS. Tran Huy Duc (Data Scientist, Singapore)
-TS. Tran Vu Khanh (Researcher, Australia)
-TS. Nhân Nguyễn (Big Data Engineer, Viaplay, Sweden)
-TS. Nguyễn Thành Kiên (Queensland University of Technology, Úc),
-TS. Lino Coria (Wiivv, Canada)
-TS. Cao Tiến Dũng (Lecturer, Tan Tao University, Vietnam)
-TS. Nguyễn Phúc Sơn (Lecturer, University of Economics and Law, Vietnam)
-TS. Tho Quan (Lecturer, Ho Chi Minh University of Technology, Vietnam)
-TS. Trần Anh Tuấn (Lecturer, Ho Chi Minh City University of Science, Vietnam)
-TS. Nguyen Nhu Van (Phap)
-Phuong V. Huynh (Big Data Lead, ZaloPay, Vietnam)
-Kỹ sư Nguyễn Trọng Tuệ (Trusting Social, Vietnam)
-Kỹ sư Trần Đào Huy Cường (Axon Active, Vietnam)</t>
-  </si>
-  <si>
-    <t>E chào các a/c. E là sinh viên ngành Toán vừa tốt nghiệp. Hiện e muốn đi theo con đường Data Science. Bản thân e mới có basic về Toán, còn lập trình thì e chưa có gì. E có tìm hiểu các thông tin về ngành này, nhưng vẫn chưa rõ ràng mình sẽ cần học những gì. A/c có thể cho e lời khuyên, với background như e, giai đoạn đầu nên cần học những gì k ạ?</t>
-  </si>
-  <si>
-    <t>Sign up now for the November episode of our FREE webinar series - Data Science in 30 minutes: Using Data Science in the Service of Humanity.
-November 15th @ 5:30PM ET - Sign up now! http://bit.ly/2JeMRO1
-Jake Porway, founder of Data Kind, joins us to discuss the future of Big Data to service humanity.
-With his non-profit, DataKind, Jake Porway connects data scientists with social causes. Picture Doctors Without Borders for data nerds—with machine learning and AI engineers parachuting in to help the UN with humanitarian tasks, like tracking virus outbreaks using mobile data. “Data is like a bucket of crude oil,” Porway says. “Potentially great, but only if someone knows how to refine it (data scientists) and someone else has vehicles that will run on it (the social sector).” In this talk, Porway discusses the strategies of DataKind, its projects and the future of big data to service humanity.</t>
   </si>
   <si>
     <t>[GIGATUM VIỆT NAM TUYỂN DỤNG LEAD DATA SCIENTIST]
@@ -1054,10 +374,6 @@
 -------------
 Ưng viên quan tâm xin gửi mail về: ngant@gigatum.com
 Địa chỉ: 54 A Nguyễn Chí Thanh, Hà Nội</t>
-  </si>
-  <si>
-    <t>Thông tin Tuyển dụng vị trí Data Scientist.
-Địa điểm làm việc: Phùng Chí Kiên Hà Nội</t>
   </si>
   <si>
     <t>HOT JOBS IN VIETNAM - FOR VIETNAMESE ONLY
@@ -1108,14 +424,6 @@
 Cảm ơn cả nhà nha!</t>
   </si>
   <si>
-    <t>Bên Cty mình là 1 Startup về IoT, Big Data và AI, về biomedical engineering, đang kiếm các bạn data scientist làm việc full time. Yêu cầu: chính trực, tư duy tốt, biết python coding và sẵn sàng học hỏi. Kinh nghiệm về AI: ít nhất 1 năm. Bạn sẽ được các chuyên gia AI hướng dẫn. Lương không cao như các công ty lớn nhưng sẽ nâng tầm năng lực của bạn. Bạn quan tâm pls inbox mình. Thanks.</t>
-  </si>
-  <si>
-    <t>Cho mình hỏi thông tin cơ hôi nghề nghiệp :
-Các ban có biết cơ hội kiếm thêm thu nhập cho data scientist ( làm chủ yếu mô hình machine learning, phân tích dư liệu, preprocess data, ...không làm các task phụ khác quá nhiều như crawl data) ở Việt Nam không nhỉ ? Mình đang kiếm kiểu part-time/ có thể làm online dự án project.
-Xin cảm ơn.</t>
-  </si>
-  <si>
     <t>HOT JOB #DATASCIENTIST #DATAENGINEERDÀNH CHO TỪ FRESHER TRỞ LÊN
 Cơ hội duy nhất trong năm dành cho các bạn từ Fresher để tham gia vào:
 ☝️Một môi trường làm việc siêu cool, nhiều người trẻ năng động, được làm việc với các teamate là du học sinh Nhật, Đức, thạc sĩ trong ngành.
@@ -1128,66 +436,6 @@
 #Hiip( http://hiip.asia/)</t>
   </si>
   <si>
-    <t>"Get technology, jobs updates and certified on #bigdata #bigdataDevelopment #bigdataTesting #bigdataAdministration #hadoop #hbase #hive #mongodb #DataMining #PredictiveAnalytics #DataScience #MachineLearning #DeepLearning #Scala #Python - ***https://www.facebook.com/databasetrainings***.
-Certification details - ***www.exuberantsolutions.com/informationmanagment.htm***"</t>
-  </si>
-  <si>
-    <t>Bạn nào học Kinh tế hoặc Quản trị muốn tìm hiểu ứng dụng Data Analytics trong Doanh nghiệp nên đăng ký tham dự.</t>
-  </si>
-  <si>
-    <t>📣📣📣HỘI THẢO DỮ LIỆU VÀ NGHỀ PHÂN TÍCH DỮ LIỆU TRONG THỜI ĐẠI 4.0 (14/11/2018) - Dành cho những ai không muốn bị tụt hậu trong kỷ nguyên kinh tế số📣📣📣
-⏳⏳⏳Nếu bạn là chủ DN và muốn hiểu đúng về tầm quan trọng của dữ liệu cũng như vai trò của đội ngũ phân tích dữ liệu, khai thác tài nguyên Big data trong sự phát triển của Doanh nghiệp;
-⏳⏳⏳Nếu bạn đang có mong muốn trở thành một Data scientist, cần một cái nhìn rõ nét nhất về nghề nghiệp của một chuyên viên phân tích dữ liệu, họ là ai, có vai trò gì và làm những việc gì;
-⏳⏳⏳Nếu bạn tiếp cận chương trình đào tạo chuẩn quốc tế về Phân tích dữ liệu – cơ hội tham dự, nhận học bổng lên tới 100% và thay đổi tương lai nghề nghiệp;
-➡️HÃY NHANH TAY ĐĂNG KÝ NGAY HỘI THẢO "DỮ LIỆU VÀ NGHỀ PHÂN TÍCH DỮ LIỆU TRONG THỜI ĐẠI 4.0"
-✅✅✅1. ĐỐI TƯỢNG THAM DỰ:
-🚩Chủ Doanh nghiệp, nhà quản lý đang quan tâm đến phân tích dữ liệu
-🚩Các cán bộ phòng Thị trường, khối kinh doanh, bộ phận kế hoạch của các Doanh nghiệp, …
-🚩Các chuyên viên phân tích Tài chính, Bảo hiểm, Đầu tư, …
-🚩Các nghiên cứu viên của các Viện, Trung tâm nghiên cứu, …
-🚩Các nghiên cứu sinh, thạc sĩ, …
-Cá nhân mong muốn trở thành một chuyên gia Phân tích dữ liệu.
-👥👥👥2. DIỄN GIẢ:
-🍀PGS, TSKH Nguyễn Văn Minh, Viện trưởng Viện Kinh tế và Thương mại quốc tế, Đại học Ngoại thương.
-🍀TS Trang Nguyễn, Đại học Florida, chuyên gia tư vấn cao cấp, SIFT AG
-🍀Ông Lê Chí Hiếu, Business manager, SIFT AG
-💞💞💞3. THỜI GIAN, ĐỊA ĐIỂM:
-🕑Thời gian: 14 – 17h, thứ 4, ngày 14/11/2018.
-🕑Địa điểm: Phòng Hội thảo quốc tế Liên Việt, tầng 10, nhà A, Đại học Ngoại thương.
-💵💵💵4. PHÍ THAM DỰ: Miễn phí
-☀️☀️☀️5. THÔNG TIN CHI TIẾT: http://bit.ly/2JH3QdP
-👉👉👉6. ĐĂNG KÝ THAM DỰ: http://bit.ly/2F8NmwF
-🆘🆘🆘7. HOTLINE: 0909 111 485 (Nhánh 1)</t>
-  </si>
-  <si>
-    <t>TS. Quản Thành Thơ (Lecturer, Ho Chi Minh University of Technology, Vietnam), TS. Duy Tin Vo (Data Scientist, Chata.ai, Canada) và mình (chủ yếu làm công tác tổ chức) sẽ tổ chức khóa học 'Natural Language Processing with Deep Learning'. Đây là khóa học online, có thu phí, trong 8 tuần, 2h/1 buổi/1 tuần.
-Khóa học này sẽ chú trọng vào việc thực hành, xây dựng lại các 'deep learning models' phổ biến hiện nay trong NLP. Tensorflow/Keras là những deep learning frameworks sẽ được hướng dẫn / sử dụng trong khóa học.
-Dành cho những bạn muốn tìm hiểu về Deep Learning in NLP và đã có khả năng lập trình với ngôn ngữ Python.
-Thông tin chi tiết ở đây:
-https://goo.gl/forms/B8SKN4XP4Y64wY0l2
-Nhân tiện mình cũng xin giới thiệu một số khóa chuẩn bị khai giảng (đã có lịch khai giảng). Các bạn có thể đăng ký thêm ở đây:
-- Data Science with Python 1 &amp; 2 (Course 1: 9am - 11am, chủ nhật hàng tuần, khai giảng 18/11/2018, Course 2: 1pm - 3pm, chủ nhật hàng tuần, khai giảng 18/11/2018), link đăng ký:
-https://goo.gl/forms/1rcwFpDApWteSBfi1
-- Data Science - Course 3 - Big Data (7pm đến 9pm, thứ 7 hàng tuần, khai giảng 11 tháng 11, 2018 ), link đăng ký:
-https://goo.gl/forms/41140Br4RE1YMdnJ3
-- Data Science - Course 4 - Kaggle Competitions (khai giảng đầu tháng 01/2019), link đăng ký:
-https://goo.gl/forms/QMZET8EEi4xz1GWl1</t>
-  </si>
-  <si>
-    <t>Cơ hội được tham gia "dự thính" cho lớp học Machine Learning sắp tới và các khóa học Machine Learning, Data Science, Data Analytics, Data Structure &amp; Algorithm.. của VEF Academy. Tuyển dụng admin partime tại HCM có trả lương, vừa được dự thính vừa được trả lương, các bạn nhanh tay đăng ký nhé: http://bit.ly/2qnUo6h, đặc biệt là các bạn muốn tham gia lớp học vừa rồi nhưng cảm thấy chưa đủ qualify với bài thi đầu vào của lớp. Yêu cầu quan trọng nhất là tinh thần trách nhiệm, thời gian flexible, cẩn thận và bản thân phù hơp với các công việc logistics nhé. JD ơ đây: http://bit.ly/2PCeOXr. Nhờ các bạn feel free share cho các bạn quan tâm nhé!</t>
-  </si>
-  <si>
-    <t>Tableau 10 A-Z: Hands-On Tableau Training For Data Science
-&gt; Connect Tableau to various Datasets: Excel and CSV files
-&gt; Understand Types of Joins and how they work
-&gt; Create Interactive Dashboards
-&gt; Create Maps</t>
-  </si>
-  <si>
-    <t>Big Data will change the Idea of Social Research in this era, check it out how?
-#BigData #BigDataAnalytics #BigDataDevelopment #BigDataDevelopmentCompany #SocialSciences</t>
-  </si>
-  <si>
     <t>[HCM][MoMo] - Data Analyst - (All Level)
 Hi mọi người,
 Hiện ví điện tử MoMo đang tìm thêm thành viên cho team Data Analyst cho kế hoạch scale-up sắp tới.
@@ -1196,12 +444,6 @@
 - Skype: triet.cao178
 - Mobile/Zalo: 0123.455.1699
 Thanks mọi người!</t>
-  </si>
-  <si>
-    <t>Thân chào anh/chị/em trong group!
-Data Science có lẽ đã là một cụm từ rất thân quen với mọi người. Tuy nhiên bản thân mình vừa mới bắt đầu tìm hiểu về lĩnh vực này, mình có tìm các khái niệm liên quan đến cụm từ này, tuy nhiên nhận được khá nhiều khái niệm mang tính chất vĩ mô...Cơ bản là mình thấy có một hứng thú cao thực sự với lĩnh vực này.
-Vậy mình muốn nhờ các anh/chi /em có kinh nghiệm trong lĩnh vực khái quát giúp mình những khái niệm, những điều cơ bản trong lĩnh vực này để mình có cái nhìn chung về lĩnh vực, từ đó mình có thể tự tìm hiểu thêm được ạ.
-Mình cảm ơn mọi người rất nhiều!</t>
   </si>
   <si>
     <t>[HCMC] SAI Digital is hiring DATA SCIENTIST to build up our Data Science Team.
@@ -1213,65 +455,6 @@
 - Full stack Data Analysis: data strategy, data modelling, data mining, anomaly detection, segmentation, classification and prediction.
 --------
 If you are interested in SAI Digital's vacancies, please feel free to send me your most-updated CV to : suong.nguyen@sai-digital.com</t>
-  </si>
-  <si>
-    <t>✴️KHAI GIẢNG KHÓA HỌC OFFLINE - Streaming and Data Analytics in Big Data
-☑️Khai giảng: 02/12/2018
-☑️Thời gian: 72 giờ
-Lớp 2: Lúc 15H30 - 18H30 ~ Thứ 7 - Chủ Nhật
-☑️Học phí:Ưu đãi 10% - 5.580.000 VNĐ/Học Viên
-( Ưu đãi dành cho 5 bạn đăng ký nhanh nhất )
-Địa điểm học: 11 - Nguyễn Đình Chiểu, Q.1, TP.HCM
-Liên hệ: 0989214285 | Skype: hoa.lethibich
-_______________________________
-Chi Tiết về khoá học :
-https://b4usolution.com/…/streaming-and-data-analytis-in…/14
-Nội Dung Khóa Học
-I. Streaming with Apache Spark and Kafka, Redis
-1. Kafka, Redis basic and deployment
-2. How to Spark works with Kafka
-3. Streaming data and collection
-4. Data Process and storage
-5. Redis and data storage for streaming
-II. Big data Analysis with Apache Spark
-1. Big Data Strategies in business
-2. Use Spark to perform Data Analysis
-3. Use Parallel Programming to explore data sets
-III. Analysis Tools
-1. Excel
-2. Setup Jupyter Notebook
-3. Use Jupyter Notebook for some analytics such as Cohort, Segment, Insight...
-4. Setup and deploy Apache Superset
-5. Use SuperSet to manage and data analytis
-IV. Multi-dimensional analysis (OLAP) on Hadoop/Spark
-1. Dimensions
-2. Cube
-3. Aggregation Groups
-4. Analysis
-5. Data Visualization</t>
-  </si>
-  <si>
-    <t>Power BI A-Z: Hands-On Power BI Training For Data Science!
-&gt; Connect Microsoft Power BI to data sources
-&gt; Create Treemaps
-&gt; Create Waterfall Diagrams</t>
-  </si>
-  <si>
-    <t>Lịch khai giảng chính thức cho 02 khóa Data Science with Python 1 &amp; 2 cuối cùng của năm 2018 đã có (đây là các khóa học hoàn toàn online):
-- Course 1: 9am - 11am, chủ nhật hàng tuần, khai giảng 18/11/2018
-- Course 2: 1pm - 3pm, chủ nhật hàng tuần, khai giảng 18/11/2018
-Tìm hiểu thêm thông tin và đăng ký ở đây:
-https://goo.gl/forms/1rcwFpDApWteSBfi1
-Tham gia hướng dẫn:
-TS. Nguyễn Văn Trung (Data Scientist, Suncorp, Australia)
-TS. Vũ Quang Hiếu (Data Scientist, Zalora, Vietnam)
-Thạc sỹ Quang Duong (Data Scientist, FDM Group, Canada)
-TS. Cao Tiến Dũng (Lecturer, Tan Tao University, Vietnam)
-TS. Nguyễn Phúc Sơn (Lecturer, University of Economics and Law, Vietnam)
-TS. Trần Anh Tuấn (Lecturer, Ho Chi Minh City University of Science, Vietnam)
-TS. Nguyễn Xuân Hà (Data Scientist, Ambyint, Canada)
-Kỹ sư Nguyễn Trọng Tuệ (Trusting Social, Vietnam)
-Kỹ sư Trần Đào Huy Cường (Axon Active, Vietnam)</t>
   </si>
   <si>
     <t>Dành cho bạn nào yêu thích Machine Learning, Market Research, có nhu cầu làm việc tại Hà Nội
@@ -1312,11 +495,6 @@
 - Được tham gia BHXH và các chế độ phúc lợi khác
 - Được tham gia các khóa đào tạo do Công ty tổ chức
 Mọi thông tin xin liên hệ: vhnam@amimeasure.vn</t>
-  </si>
-  <si>
-    <t>COTS Mobile Apps provide inexpensive machine operator interfaces. Learn how Mobile Apps help us to interact with Machines better?
-https://buff.ly/2QO3Zi2
-InnovatorsBay Technologies Pvt. Ltd. #Technology #Analytics #IoT #MobileApps #ML #BigData #DeepLearning</t>
   </si>
   <si>
     <t>[HOT JOB for Talents] - 2000$ - 3000 USD/month
@@ -1375,55 +553,11 @@
 Hi vọng có cơ hội hợp tác các bạn!</t>
   </si>
   <si>
-    <t>Data Science, Deep Learning, &amp; Machine Learning with Python
-&gt; Build artificial neural networks with Tensorflow and Keras
-&gt; Implement machine learning, clustering, and search using TF/IDF at massive scale with Apache Spark's MLLib
-&gt; Implement Sentiment Analysis with Recurrent Neural Networks</t>
-  </si>
-  <si>
-    <t>#UDEMY #FREE
-😀💓😀 26+ Hours Top-Rated Hurry [100 % OFF UDEMY COUPON ] Data Science Master Class with R #YourSmartyBro</t>
-  </si>
-  <si>
     <t>[HN] Good morning, my friends. My current employer, a fin-tech start-up funded by an US fund, is looking for candidates in 2 positions:
 - 1 data engineer, junior or intern level
 - 1 senior level person in Natural Language Processing (NLP)
 My company offers attractive, negotiable salary package, which is up to $2.5k depending on the experience and skill of the candidate.
 If you are or you know anyone who is interested in the opportunity, please contact me (say, connect on messenger). I thank you very much for your time.</t>
-  </si>
-  <si>
-    <t>Andafin is seeking Vietnam-based Data Engineers (Python/R) and Data Analysts (R) for our cloud-based data analytics platform, which we use to provide insights to banks across Asia and Africa.</t>
-  </si>
-  <si>
-    <t>Đây là khóa hướng dẫn mình mong chờ nhất :)
-[Data Science - Course 4 - Kaggle Competitions]
-Chắc là các bạn quan tâm đến Data Science / Machine Learning đều biết về các cuộc thi trên Kaggle. Nếu bạn nào chưa rõ thì có thể tìm hiểu thêm ở đây: https://www.kaggle.com/competitions
-Đây là khóa huấn luyện các bạn tham gia cuộc thi trên Kaggle. Thời gian khoảng 10 tuần (02 tuần đầu: giới thiệu về cuộc thi Data Science trên Kaggle, các thuật toán cơ bản, chọn nhóm; 04 tuần tiếp theo: mỗi đội sẽ được huấn luyện để tham gia một 'completed competition' trên Kaggle; 04 tuần cuối: mỗi đội sẽ được huấn luyện để tham gia một 'active competition' trên Kaggle). Chúng ta sẽ chia thành các đội, mỗi đội nhiều nhất là 05 thành viên.
-Đây là khóa dành cho các bạn có thời gian (dành ít nhất là 20h/1 tuần) và có kiến thức về data science (sẽ có bài kiểm tra trước khi được chấp nhận tham gia).
-Và đây là khóa huấn luyện 'online'.
-Các bạn sẽ được huấn luyện chính bởi 02 "chuyên gia":
-- ThS. Phạm Thành Lâm (Lead Data Scientist at VNG Datalabs, Saigonapps Founder and Kaggle Master, Vietnam). He is Kaggle master and has top solutions in qualified analytic cups such as CIKM, WSDM etc.
-- TS. Vũ Quang Hiếu (Head of Data Science, Zalora, Vietnam). He participated in a number of machine learning competitions and got some achievements. Specifically, he respectively won the 2nd prize and the 1st prize in the AAIA'17 and AAIA'18 Data Mining Challenge, in addition to teaming up with Lam Pham to land in the top 10 in the CIKM'17 AnalytiCup and the top 10 in the Kaggle WSDM'18 KKBox's Churn Prediction Challenge.
-Mình thì chạy lòng vòng :).
-Nếu bạn nào dự kiến tham gia thì vui lòng điền form dưới đây. Mình sẽ liên lạc lại với các bạn sau.
-Thời gian dự kiến bắt đầu: đầu tháng 01/2019.
-https://goo.gl/forms/QMZET8EEi4xz1GWl1</t>
-  </si>
-  <si>
-    <t>#help
-Chào mọi người, hiện tại em đang mới bắt đầu tiếp cận đến Data Science. Vậy cho em hỏi trong nhóm có ai có 1 project ( liên quan đến SPARK thì tốt, em đang nghiên cứu cái này) có thể share cho em tham khảo được không ạ
-Em cảm ơn mọi người, ADmin</t>
-  </si>
-  <si>
-    <t>Hi mọi người,
-Em background và job hiện tại là đang về finance business accounting. Hiện em đang thấy xu hướng về data anaytic , big data rất cần thiết cho các doanh nghiệp. Nếu có thể kết hợp đc cả data analytic/big data vào với background em đang có thì rất useful.
-Tuy nhiên do hạn chế về kỹ năng IT, không biết nếu e theo học thạc sĩ Data Science/Data Analytic thì nên bổ sung kiến thức như thế nào trc khi học thạc sĩ ạ?
-E cảm ơn</t>
-  </si>
-  <si>
-    <t>Big Data Analytics: A wonderful technique to make valuable business decisions
-Be it improving the company's product or preparing new business strategies, the technique of Big Data analytics is used to make valuable business decisions.
-#BigDataAnalytics #BigData #technique #business #IoT</t>
   </si>
   <si>
     <t>[Hiring - HCMC]
@@ -2586,12 +1720,1226 @@
 Data Science là một lĩnh vực đòi hỏi sự chuyển sâu và kinh nghiệm với dữ liệu hay miền dữ liệu, nếu bạn quen làm việc với ảnh bạn sẽ cần phải có thời gian để làm quen với các công việc với text hay số trị. Rất nhiều ứng viên đi ứng tuyển đã không hiểu rõ những vấn đề này, hay đọc và tìm hiểu bài báo này để tạo cho mình lợi thế trong con đường phát triển thành một Data Scientist.
 #DataScience #HR</t>
   </si>
+  <si>
+    <t>[HN/HCM] SVTECH tìm kiếm nhân tài cho vị trí Data Analytics, offer up to $1,300 ❣
+✔ SVTECH, một trong những công ty tích hợp hệ thống viễn thông – CNTT hàng đầu Việt Nam, hiện đang có nhu cầu tìm kiếm Data Analytics ở cả Hà Nội và TP.HCM với các yêu cầu:
+🔸Có ít nhất 2 năm kinh nghiệm
+🔸Có kinh nghiệm với data warehouse, ETL Tool
+🔸Có kiến thức về RDBMS: Oracle, MS SQL Server, DB2
+✔ Phúc lợi:
+🔸Mức lương hấp dẫn lên đến $1,300, lương tháng thứ 13 và thưởng thêm hàng năm
+🔸Môi trường làm việc năng động, chuyên nghiệp, thân thiện
+🔸Nhiều cơ hội được đào tạo bởi các công ty hàng đầu thế giới như Oracle, Juniper, Hitachi, IBM, …
+🔸Tham gia các hoạt động thể thao, team building, happy hours, …
+🏢 HN: IC Building, 82 Duy Tân, Q. Cầu Giấy, HN |
+HCM: 2A Phan Thúc Duyện, P4, Tân Bình, TP.HCM
+⏰ Thứ 2 – thứ 6
+📧 Nhanh tay apply CV về mail: tranleminh0104@gmail.com với tiêu đề [SVTech_Data Analytics_Họ và tên] cho em nhé.</t>
+  </si>
+  <si>
+    <t>mình đang tìm một khóa học online
+có cấp chứng chỉ data scientist
+bạn nào biết chỉ mình với
+cám ơn ạ</t>
+  </si>
+  <si>
+    <t>Apply today for The Data Incubator’s Free Data Science Fellowship Program. The Data Incubator is an intensive 8 week fellowship that prepares current and graduated masters, PhDs, and postdocs in STEM and social science fields seeking industry careers as data scientists. We teach about data engineering, machine-learning, analytics, visualization and many other big data topics. The program is free for Fellows and supported by sponsorships from hundreds of employers across multiple industries. In response to the overwhelming interest in our earlier sessions, we will be holding another fellowship.
+Locations: There will be both an in-person (in NYC, DC, SF, Boston, Seattle) and online section of the fellowship.
+Dates: All sessions will be from 2018-09-10 – 2018-11-02.
+Application:</t>
+  </si>
+  <si>
+    <t>"Get technology, jobs updates and certified on #bigdata #bigdataDevelopment #bigdataTesting #bigdataAdministration #hadoop #hbase #hive #mongodb #DataMining #PredictiveAnalytics #DataScience #MachineLearning #DeepLearning #Scala #Python - ***www.facebook.com/bigdatatrainings***.
+Certification details - ***www.exuberantsolutions.com/informationmanagment.htm***"</t>
+  </si>
+  <si>
+    <t>📚Next-Generation Big Data - Butch Quinto👇
+http://ebooksandpapers.blogspot.com/…/next-generation-big-d…
+📚Big Data Processing Using Spark in Cloud - Mamta, Valentina, Lalit, Raghvendra (Editors)👇
+http://ebooksandpapers.blogspot.com/…/big-data-processing-u…
+📚Data Analytics and Big Data - Soraya Sedkaoui👇
+http://ebooksandpapers.blogspot.com/…/data-analytics-and-bi…
+#statistic #books #papers #ebooks #dataanalysis #bigdata #datascience
+🔻Join our community👍
+Estadísticos e-Books &amp; Papers</t>
+  </si>
+  <si>
+    <t>[HCM] BRSE Developer (FEMALE) - JAPAN - Require English or Japanese
+Salary: Upto 60 triệu
+Hi bà con, em là Linh headhunter. Lần đầu tiên đăng job đi nước ngoài nên hơi hồi hộp, xin bà con lượng thứ nếu có điều chi sơ sót hiu hiu
+Em đang tìm lập trình viên NỮ đi Nhật, tiếng Anh tốt (ít nhất là đọc hiểu, sẽ được train tiếng Nhật 2-3 tháng trước khi đi) HOẶC có tiếng Nhật giao tiếp thì oke
+Điều kiện là: ít nhất 2 năm kinh nghiệm Javascript hoặc python. Có kinh nghiệm AI hay Data Science càng tốt. Hết rồi
+Lương: tầm 30-60 triệu/tháng (negotiable for higher level or experience) + chế độ bảo hiểm của Nhật. Trả OT đàng hoàng
+Sau 1-2 năm về có thể làm cho công ty này ở VN nếu thích
+Em hổng biết các công ty môi giới việc làm charge phí đi Nhật thế nào nhưng ở đây hổng mất phí gì, chỉ cần có người chịu đi thôi.
+Ngoài ra các bạn còn được support VISA, chỗ ở, phương tiện đi lại bên Nhật.
+Bà con quan tâm vui lòng INBOX hoặc
+Skype: dieulinhht
+Mail: dieulinh.ht234@gmail.com
+để được tư vấn kĩ nha
+Thanks ạ
+#bse #brse #python #angular #react #javascript #js #AI #bigdata #ML #machinelearning #datascience</t>
+  </si>
+  <si>
+    <t>Xin chào mọi người, em là Huy (Holistics) hôm bữa có đến meetup của nhóm mình chia sẻ 1 bài về building data pipeline / data-warehouse, hy vọng mọi người còn nhớ.
+Hiện bên em đang có 2 vị trí Data Science Intern cho sinh viên, xin phép được post ở đây để bạn SV nào hứng thú có thể apply.
+- Công việc: tìm hiểu hệ thống Holistics, xây dựng các Machine Learning models để học user behaviours của người dùng.
+- Ưu tiên cho các bạn sinh viên học CNTT, có kiến thức nền về AI/Machine Learning.
+- Apply: PM hoặc email về huy@holistics.io
+https://www.facebook.com/huy/posts/10155732440593163</t>
+  </si>
+  <si>
+    <t>Cty mình (Holistics) có 2 vị trí Data Science Internship.👨‍💻👩‍💻 Xem thêm bên dưới!</t>
+  </si>
+  <si>
+    <t>Hỏi gì đáp nấy với Tiến sĩ, Giảng viên Data Science Lê Hồng Phương ở event bên dưới. Các bạn nào đang nghiên cứu hay tìm hiểu về NLP đặc biệt là tiếng việt thì tham gia nhé!
+Link đặt câu hỏi bên dưới comment nhé.</t>
+  </si>
+  <si>
+    <t>#Recruitment
+Do you want to make a career move in Data Science?
+Do you want to have deep engagement with machine learning &amp; data mining?
+Do you have a solid foundation in data and be hungry for new technologies, tools, methods?
+If yes, this position is for YOU!
+--
+Our Lab Team PIXTA Vietnam is now in demand of a motivated Senior Data Scientist for projects implementation &amp; development like classification, ranking, suggestion, translation system...
+🍀 Roles &amp; responsibilities
+1. Identify &amp; develop appropriate machine learning/data mining techniques to enable better business outcomes
+2. Understand &amp; analyze data sources
+3. Form &amp; test hypotheses, design experiments to answer targeted questions of advanced complexity
+4. Collaborate with other developers to designing the integration method
+5. Write documents for projects including business objective, data gathering and processes, lead approaches, final algorithm, detailed set of results and analytical metrics
+6. Research new technical to solve advanced problems
+7. Present model process and performance
+8. Coach and guide less experienced team members
+🍀 Requirements: https://itviec.com/…/senior-data-scientist-r-python-pixta-v…
+🍀 Salary: Up to 2000$
+🍀 Working environment: Young, dynamic, professional
+🍀 Apply now: recruit.vn@pixta.co.jp
+In case you have any question, please do not hesitate to comment or inbox me :D Thanks for reading!</t>
+  </si>
+  <si>
+    <t>Feedback! :-) #AnalytticaTreasureHunt
+Curious about our platform, click here-&gt; https://learn.analyttica.com/
+#EarlyUsers #DataAnalytics</t>
+  </si>
+  <si>
+    <t>Mình đang plan cho chương trình Business Analytics for Community. Bạn nào quan tâm Analytics có thể tham gia.</t>
+  </si>
+  <si>
+    <t>Don’t miss the June episode of The Data Incubator’s free webinar series, Data Science in 30 minutes: Why Big Data Needs Thick Data with Tricia Wang.
+June 26th @ 5:30pm ET - Sign up now! http://bit.ly/2JmUt2c
+Why do so many companies make bad decisions, even with access to unprecedented amounts of data? Tricia has the answer: companies are implementing “big data” without what she calls the secret, missing ingredient, “thick data”— precious, unquantifiable insights from actual people—to make the right business decisions and thrive in the unknown. She’ll share stories and lessons from how her company, Sudden Compass, advises and teaches organizations to unlock insights from big data and turn their big data projects from optimizing the bottom-line to driving growth.</t>
+  </si>
+  <si>
+    <t>🔑 TECHNOLOGY FOR A BETTER LIFE
+Sự kiên công nghệ đầu tiên của FPT Software giới thiệu về các dự án Products về AI từ những diễn giả gạo cội. Đơn vị tổ chức là đơn vị tiên phong của FSOFT trong lĩnh vực Data science/AI và Cloud computing, tập trung làm các dự án liên quan đến 3 mảng việc chính: COMPUTER VISION; NLP; TIME-SERIES
+- Với các sản phẩm hứa hẹn sẽ nâng cao chất lượng cuộc sống đưa các sản phẩm AI Việt Nam lên tầm cao mới
+• CodeIT - Giải pháp tối ưu cho Coding web app
+• Akaminds machine translation - Ứng dụng dịch thuật vượt mặt ông lớn Google
+• Deep clinic – Sản phẩm hỗ trợ chuẩn đoán bệnh ngoài da chỉ cần hình ảnh
+- Tham quan các boot demo để được chia sẻ sâu hơn về các bài toán, đưa ra các solution đã nêu ở bài thuyết trinh
+- Phỏng vấn tuyển dụng các vị trí, mức lương up to 2000$ (Java, Devops, Python, Security Engineer, Data Scientist)
+Hơn thế nữa, đến với Tech Meetup lần này, ngoài những diễn giả đầy kinh nghiệm và sáng tạo đến từ FSS còn có sự góp mặt của một nhân vật bí ẩn với chuyên môn sâu rộng trong lĩnh vực Security. Đây là cơ hội không thể bỏ lỡ cho những ai đam mê công nghệ, tìm hiểu sản phẩm công nghệ mới và quan tâm đến lĩnh vực Security.
+📧 Đừng quên đặt lịch tham gia cùng FPT Software để không bỏ lỡ sự kiện hấp dẫn này!
+Link đăng ký sự kiện: https://tinyurl.com/yaa2s37n hoặc inbox trực tiếp tới mình để được nhận thêm thông tin về các vị trí đơn vị đang cần tuyển nhé
+Deadline đăng ký:Thứ 5 ngày 07/06/2018
+Link sự kiên: https://www.facebook.com/events/220406865421839/
+⏰ Thời gian: 8:30-12:00 ngày 9/6/2018 (Thứ 7 tuần này)
+Địa điểm: Naked Hub, tầng 2 tòa nhà IPH, 241 Xuân Thủy, Cầu Giấy
+&lt;3 Các bạn chia sẻ thông tin giúp mình nữa nhé.
+Cảm ơn cả nhà.</t>
+  </si>
+  <si>
+    <t>[Xin phép Ad cho mình share thông tin tuyển dụng]
+---
+Sen Đỏ - Sàn thương mại điện tử Sendo.vn đang tìm 2 bạn Lead/Senior Software Engineer (Java, Big Data).
+Nếu bạn quan tâm:
+- Cơ hội làm việc với hệ thống lớn hàng triệu users (ecommerce);
+- Thu nhập năm từ 14 - 17 tháng lương;
+- Cơ hội làm việc, trao đổi chuyên môn với Lead Data Science là Tiến sĩ (Computer Science) từ Singapore (NUS)
+JD chi tiết: https://goo.gl/JEibvD</t>
+  </si>
+  <si>
+    <t>Hôm trước có anh bạn hỏi về ứng dụng Data Science trong Doanh nghiệp. Mình xin phép chia sẻ một bài phân tích dữ liệu HR mẫu cho mọi người tham khảo nhé.</t>
+  </si>
+  <si>
+    <t>Phân tích quản trị nguồn nhân lực
+Analytics in HR
+--------------------------
+Chúng ta có thể thấy những thông tin rất hữu ích từ việc phân tích bảng lương của nhân viên dựa vào các yếu tố độ tuổi, giới tính, số năm kinh nghiệm, khu vực làm việc, trình độ nghề nghiệp,vv...Các câu hỏi đối với nhà quản trị, HR analyst gặp phải là:
+-Yếu tố nào được đánh giá là quan trọng nhất trong quá trình xét lương/thưởng?
+- Mô hình nào trong Predictive Analytics sẽ phù hợp với bộ dữ liệu sẵn có của công ty?
+- Cần phải thêm các biến/trường dữ liệu nào để phân tích trên có hiệu quả hơn?
+...
+Dưới đây là phân tích sơ bộ những insights từ việc dùng SPSS modeler để hiểu về 1 bộ dữ liệu mẫu về nhân sự (by Anh Nguyen, SIFT VN-Hue).
+Let's discuss and have some comments.
+P/S: Data and files link will be updated...keep in touch!</t>
+  </si>
+  <si>
+    <t>PyconAPAC 218(as it happens, day1 , to be updated): Katherine đã mở màn keynote về data privacy, GDPR, model attacking ví như có thể phỏng đoán một người có phải là HIV positive dựa vào training label data hay không? Nói chung là cách chung ta cần đối xử với data như food, energy, pets, etc. Phần Data Science track thì có vẻ là 70% là NLP, DL và 30% là productionizing/engineering ML.
+Nhân tiện có 1 bài rất thực dụng của anh Pete Warden, người mang TF lên iOS. Chúc mọi người đọc vui. :)</t>
+  </si>
+  <si>
+    <t>Hello Guys,
+Are you willing to get certified professional on emerging technologies like IOT, Machine Learning &amp; Artificial Intelligence, Data Science, Devops, Microsoft Azure, Android Development, PMP, Analytics with R or AWS cloud computing (Solution Architect). Please drop your Email ID &amp; Phone number. Or fill this form: https://goo.gl/forms/Zfjs0ooFsRzZzCbi1
+Exciting offer: Get 1 Self paced course of your choice completely free with above courses.
+Website: www.collaberatact.sg</t>
+  </si>
+  <si>
+    <t>[#Resources] Một số nguồn tham khảo miễn phí về Deep Learning (DL) và Machine Learning (ML) (Phần 1)
+Dưới đây là các nguồn tham khảo dành cho các bạn vẫn chưa biết ML và DL là gì cũng như các bạn muốn hiểu cơ bản về các khái niệm cũng như thuật toán, mô hình dùng trong các ngành này.
+**1. Blog:**
+**1.1 Blog tiếng Việt:**
++ Blog [Khanh's little things](http://khanhxnguyen.com/tutorials/):
+Đây là trang blog của bạn Nguyễn Xuân Khánh, nghiên cứu sinh ngành Machine Learning and Natural Language Processing (Học máy và Xử lý ngôn ngữ tự nhiên) tại University of Maryland at College Park, Mỹ. Các bài viết giới thiệu những khái niệm cơ bản trong ML như Over fitting, Loss function, ... và có giới thiệu sơ qua về cách thức hoạt động cũng như những thách thức khi học Deep Learning.
++ Blog [Machine Learning Cơ bản](https://machinelearningcoban.com/):
+Đây là trang blog của bạn Vũ Hữu Tiệp, là nghiên cứu sinh ngành Machine Learning and Computer Vision (Học máy và Thị giác máy tính) tại Pennsylvania State University, Mỹ. Đây là một blog rất chi tiết về các thuật toán cơ bản của ML như Linear Regression, K-Means, Decision Tree, SVM... và có cả ví dụ viết bằng Python để các bạn có thể hình dung dễ hơn về cách các thuật toán được chuyển thành code như thế nào. Các ví dụ ứng dụng các thuật toán cũng rất dễ hiểu và nếu các bạn đã học qua Toán Đại cương thì các bạn hoàn toàn có thể nắm được phần công thức Toán.
++ Blog của [Ông Xuân Hồng](https://ongxuanhong.wordpress.com/):
+Đây là blog của bạn Ông Xuân Hồng, tốt nghiệp Ths tại Japan Advanced Institute of Science and Technology (JAIST), Nhật Bản và hiện đang là một data scientist. Các bài viết thiên về các ứng dụng thực tế và bao gồm nhiều đề tài như ML, DL, xử lý ngôn ngữ, các framework thường dùng trong xử lý big data, ...
+**1.2 Blog tiếng Anh**:
++ Blog của [Andrej Karpathy](http://karpathy.github.io/):
+Đây là blog của Andrej Karpathy, hiện là Director of Artificial Intelligent and Autopilot Vision tại hãng xe Tesla, Mỹ. Trước đó anh này tốt nghiệp Phd tại Stanford University và có một khóa dạy về Convolutional Neural Network rất nổi tiếng cũng ở trường ĐH này. Các bài blog về Deep Reinforcement Learning và Reccurent Neural Network được viết rất hay và dễ hiểu.
++ Blog của [Colah](http://colah.github.io/):
+Đây là trang blog của Christopher Olah, đang là Research Scientist tại Google Brain (bộ phận R&amp;D về AI của Google). Bài về Long Short-term Memory hay LSTM (một mô hình Recurrent Neural Network) là một trong những bài giải thích trực quan và dễ hiểu nhất về mô hình này.
++ Blog của [Adit Deshpande](https://adeshpande3.github.io/)
+Adit Desshpande hiện đang là sinh viên năm 3 ngành Computer Science (khoa học máy tính) tại University of California, Los Angeles. Trang này có nhiều bài tổng hợp dành cho người mới bắt đầu về các mô hình DL.
+**2. Video Series (Tiếng Anh):**
++ [Facebook’s Field Guide to Machine Learning video series – Facebook Research](https://research.fb.com/the-facebook-field-guide-to-machin…/)
++ [AI Innovators – Meet the World’s Brightest Minds](https://www.nvidia.com/…/deep-lea…/industries/ai-innovators/)
++ [Artificial Intelligence, Revealed | Facebook Code | Facebook](https://code.facebook.com/pages/1902086376686983)</t>
+  </si>
+  <si>
+    <t>[Góc tuyển dụng]
+Chào mọi người,
+Mình là Vân - Pixta Việt Nam (Công ty Product của Nhật). Hiện tại bên mình đang cần tuyển 2 bạn Data Scientist (1 Junior + 1 Senior)
+- Junior: có ít nhất 2 năm kinh nghiệm dev (prefer Python or Ruby), yêu thích data mining, machine learning, đã tìm hiểu về mảng này tuy nhiên chưa có kinh nghiệm (vào sẽ được đào tạo) + Tiếng Anh tốt
+- Senior: Có kinh nghiệm về Data + Tiếng Anh tốt
+👉 Chi tiết công việc: https://bit.ly/2Iu8U8f
+👉 Apply now: send CV to: recruit.vn@pixta.co.jp
+-------
+About Pixta:
+✅A Software Japan Product Company
+✅Provides E-commerce platform for digital contents (Photo, Illustrations, Footage...) and services for creative industry
+✅1st top of Japan's marketplace site of stock photos, illustrations, vectors and footage, now expand to Korea, Thailand, Taiwan
+✅Pixta Vietnam: Young, Comfortable &amp; Respected Environment
+Nếu cần thêm thông tin chi tiết, anh/chị/bạn cứ inbox mình nhé! Cảm ơn mọi người đã đọc tin ạ!</t>
+  </si>
+  <si>
+    <t>[Hanoi - Recruitment Data Scientist]
+Pixelz Inc. is 100% Denmark capital, we are the leading product image editing service for internet retailers, bloggers, designers, photographers, and webmasters.
+Currently we are looking for talented candidate for :
+- Junior Data - https://www.vietnamworks.com/junior-data-engineer-927206-jv
+- Data Scientist - https://www.vietnamworks.com/data-scientist-17-1-1-927210-jv
+Please send your CV to email add.: dunglt@pixelz.com
+If you have any question, feel free to contact me via mobile: 0976 967 288 or skype: tien.dung22
+Thanks for reading^^</t>
+  </si>
+  <si>
+    <t>Don’t miss the May episode of The Data Incubator’s free webinar series, Data Science in 30 minutes: Building Data Science Capabilities That Scale with DataScience.com founder &amp; CEO, Ian Swanson.
+May 17th @ 5:30pm ET - Sign up now! http://bit.ly/2H4riDX
+Data scientists and machine learning engineers saw the highest job growth of any role last year, yet few companies have successfully turned their aggressive hiring into profitable, scalable data science capabilities. In this session, DataScience.com CEO Ian Swanson shares lessons learned from building a platform that supports collaborative data science for a variety of clients, from startups to Fortune 500 companies. Learn about the technology gaps, roadblocks to innovation and efficiency, and talent retention challenges that have proven to be detrimental to data science success in an enterprise environment — and how to mitigate them.</t>
+  </si>
+  <si>
+    <t>LOOKING FOR LEAD DATA SCIENTIST
+(xin phép admin cho mình post ở đây, hoặc PM mình move vào nơi phù hợp hơn)
+---
+Hi mọi người,
+Mình là Phú, Country Manager / Head of R&amp;D ở Knorex (https://www.knorex.com). Công ty thành lập ở Singapore năm 2010, hiện tại có hơn 100 nhân viên ở 7 quốc gia. Sản phẩm chính thuộc lĩnh vực adtech, đã trải qua Series B năm 2017 và đang tham vọng hướng đến những thị trường lớn hơn như US, Europe, Australia...
+Mảng R&amp;D tụi mình tập trung vào 2 hướng là NLP và AI / Data Science. Riêng mảng AI / Data Science tụi mình mới đầu tư mạnh hơn 1 năm nay, hiện tại rất may mắn cũng build được 1 team các bạn data scientist rất tài năng từ các trường Bách Khoa, Tự Nhiên (VN), NUS (Singapore), KAIST (Korea).
+Hiện tại, tụi mình đang rất cần một bạn senior data scientist, làm việc trực tiếp với management để lead effort về AI / Data Science. Thông tin cụ thể xin xem ở link sau: https://itviec.com/.../senior-lead-data-scientist-knorex...
+Các bạn hứng thú có thể apply thông qua link ITViec hoặc contact mình ở Skype ID: le.truong.vinh.phu để trao đổi thêm.
+Trân trọng,
+LTVP</t>
+  </si>
+  <si>
+    <t>Các bạn data scientist quan tâm đến lĩnh vực Quản trị Nhận sự và muốn tìm hiểu về kiến thức chuyên môn thì có thể đăng ký tham dự ở HN ngày 29/5 tới.</t>
+  </si>
+  <si>
+    <t>Mình muốn học big data để ứng dụng trong Marketing thì phải học Data Engineer hay Data Scientist vậy mọi người?
+Và ở HCM có trung tâm nào dạy về big data ạ?
+Cảm ơn mọi người</t>
+  </si>
+  <si>
+    <t>Hi all :D
+Một tuần mới lại bắt đầu, mình lại mang tới cho mọi người thêm những job IT thật cool tại Hiip đây ;)
+1. Web Developer- Salary up to $1700
+2. React Native level Junior- Salary up to $1000
+3. Data Scientist level Intern/ Fresher- Salary up to $ 400
+4. Web Intern- Salary up to $300
+Thông tin các job mọi người tham khảo tại:
+1. Web Developer:
+- Level Junior/Senior: http://bit.ly/2rqeyNS
+- Level Intern: http://bit.ly/2FOBo6t
+2. React Native Developer: http://bit.ly/2K0BcmL
+3. Data Scientist: http://bit.ly/2roa4Xa
+CV gửi về: viet.truong@hiip.asia hoặc inbox mình để được hỗ trợ nếu có thắc mắc nhé
+Nice day cả nhà ^ ^</t>
+  </si>
+  <si>
+    <t>[JOB TUYỂN DỤNG] TÌM KIẾM 1 BẠN DATA SCIENTIST CHO DỰ ÁN DATA WAREHOUSE CỦA CÔNG TY.
+Địa điểm: 165 Thái Hà, Hà Nội.
+Job description:
+- Build and enhance credit risk and fraud models
+- Work on data collection, data cleansing, methodology evaluation, model assessment and validation.
+- Conduct detailed analytical work with a high level of accuracy to deliver quality result to senior management.
+- Work with strategy team to provide analytical insight on model usage
+Requirements:
++ At least 2 year-experience in Data scientist
+- Education quanlification: degree in Computer Science/ Information Technology
++ Strong knowledge of Python, Hadoop etc.
++ Technical proficiency with SAS and SQL
++ Excellent understanding of credit risk modeling methodologies such as logistics regression, decision tree, machine learning
++ Excellent analytical skills.
+Tham gia ngay dự án của chúng tôi.
+CV gửi qua email: vanbth@truemoney.com.vn.
+Skype: vanbuihr_tb
+#Scientist #tuyendung #bigdata</t>
+  </si>
+  <si>
+    <t>Dạ xin chào...Em muốn hỏi thời gian đào tạo ngành Data Science khoảng bao lâu vậy?? Em định học xong 4 năm Đại học ở Cần Thơ rồi (em học Nông nghiệp) sẽ học ngành Data Scien. Em cũng đang tự học, tự tìm hiểu rất nhiều về lập trình, học máy,...những gì liên quan đến Data Science... Và em cũng cố gắng để săn tìm học bổng du học... Xin các cao nhân tư vấn cho em... Rất biết ơn...</t>
+  </si>
+  <si>
+    <t>Tìm Data Analyst có back ground Toán Kte, Thống kê ứng dụng, Data Science, Kte, Kte lượng. Kinh nghiệm 1-2 năm ở HCM.</t>
+  </si>
+  <si>
+    <t>Tìm đồng đội, một số công ty khách hàng đang tìm Data Analyst làm việc trực tiếp với Product Manager và Trưởng dự án chiến lược. Các bạn nào có back-ground data science, toán kinh tế, tài chính định lượng hoặc thống kê ứng dụng có thể apply vị trí này. Chỉ cần 2 năm kinh nghiệm làm việc hoặc có Master.
+Gửi email về fred.dang@sift-ag.com để mình review và share cho hai anh Khách hàng nhé. Một anh làm Cty Chứng khoán, một anh làm Công ty bán lẻ. Cả hai công ty đều ở HCMC.</t>
+  </si>
+  <si>
+    <t>🎬 THE SHOW IS ON. Please welcome:
+⭐️ Ms. Hanh Pham - Data Scientist from Airbnb
+⭐️ Mr. Nam Nguyen - Research Staff Member from IBM
+⭐️ Mr. Brian Cuong Nguyen - Manager, R&amp;D Analytics from Jazz Pharmaceuticals
+Host: Ha-Lan Nguyen
+READY TO LEARN FROM THE BEST?!? Please comment your questions below to engage better with our speakers.
+Watch LIVE on VNPN:
+https://vnpn.co/webinar/5ae5e9be17d462121e6566e0
+Ha-Lan Nguyen Tron Le Phan Huy Dung Phuong Doan Jean Pham Cuong Nguyen Cuong Pham Hanh Pham Nam Nguyen
+https://www.youtube.com/watch?v=g3C_qK5sJcw</t>
+  </si>
+  <si>
+    <t>Giới thiệu với mọi người, chương trình Business Analytics for Professional sẽ cung cấp kiến thức quản lý dự án Analytics và ứng dụng Analytics trong kinh doanh. Công cụ SPSS Modeler sẽ giúp cho mọi người tiếp cận Analytics nhanh hơn trước khi đào sâu vào R hoặc Python.
+P/S: chương trình này phù hợp cho các bạn thuộc khối ngành kinh tế, quản lý và có kinh nghiệm làm việc 3-7 năm. Hiện nay mình chỉ nhận đào tạo cho Doanh Nghiệp.
+Tháng 9 này, JVN Institute - Vietnam National University HCMC sẽ ra chương trình tương tự đào tạo 3 tháng.</t>
+  </si>
+  <si>
+    <t>Chào mọi người, sau nhiều tháng chuẩn bị, chương trình Business Analytics for Professional đã được hoàn chỉnh và chính thức triển khai tại TPHCM. Mọi người có thể download chương trình ở đây: https://goo.gl/4TH3QA.
+Hiện nay, mục tiêu của chương trình là giúp các công ty bổ sung kiến thức cho nhân viên 3-7 năm KN, có background kinh tế/quản trị có thể ứng dụng Data Science trong phân tích và ra quyết định kinh doanh.
+Tập trung vào việc ứng dụng thuật toán trong các bài toán phân tích trên SPSS Modeler sẽ giúp các bạn nhanh chóng nắm bắt concepts và triển khai trên thực tế. Phần mềm SPSS Modeler và các bài thực hành sẽ được cung cấp cho học viên.
+Các bạn quan tâm đến khóa học sau giờ làm việc hoặc cuối tuần thì hãy đợi đến tháng 9 nhé. JVN Institute - Vietnam National University HCMC sẽ mở chương trình đào tạo ngắn hạn tương tự.
+Khóa đầu tiên sẽ được triển khai với lịch dự kiến như sau:
+- Intro to Analytics (2 day) - 10-11 / May
+- Data Prep (2 day) - 14-15 / May
+- Predictive Analysis for Categorical Data - 16-17 / May
+- Predictive Analysis for Continuous Data - 21 / May
+- Visualization of Reports - 22 / May
+Bạn nào có thể tham dự thì đăng ký ở link https://bit.ly/2HuHVZG hoặc gửi email cho fred.dang@sift-ag.com
+Các bạn có thể đặt câu hỏi về chương trình với team SIFT ở Vietnam.
+Trang Nguyen
+HN Le Chi Hieu
+HCM Trinh Pham</t>
+  </si>
+  <si>
+    <t>We have a slot for Data Scientist:
+1. Requirement
+- 0-3 years of working experience in analytics, data mining, and/or predictive modeling
+- 1-5 years of overall development experience
+- 3+ years analyzing and interpreting data
+- Proven track record in modifying and applying advanced algorithms to address practical problems
+- Good knowledge of databases. Experience with NoSQL databases such as MongoDB and HBase is an advantage
+- Experience in working with SQL Server, Tableau, Power BI and related technologies
+- Experience with Machine Learning techniques (e.g., classification, clustering and feature engineering) is a big advantage
+- Experienced in applying data science to business problems preferred
+2. Job description
+- Working at Hanoi, Viet Nam
+- Identify and develop appropriate machine learning/data mining techniques to enable better business outcomes.
+- Understand and analyze data sources.
+- Use analytical rigor and statistical methods, machine learning, programming, data modeling, simulation and advanced mathematics to analyze large amounts of data, recognizing patterns, identifying opportunities, posing business questions and making valuable discoveries.
+- Research new ways for modeling and predictive behavior for large scale projects.
+- Generate and test hypotheses, designing experiments to answer targeted questions of advanced complexity.
+- Collaborate with data engineers to identify data preparation/cleansing/ETL pipelines
+- Define data needs, evaluate data quality, and extract/manipulate data in a "Big Data" environment.
+- Interprets and communicates insights and findings.
+- Coach and mentor junior team members.
+- Document and present model process and performance.
+For more information, please inbox me or send an email attached CV to email: haunv@topica.edu.vn. Thank you so much!</t>
+  </si>
+  <si>
+    <t>Các bạn học Khối ngành Kinh tế hoặc Quản trị có thể lựa chọn Business Analytics như một hướng đi mới mà không phải giành quá nhiều thời gian đi sâu vào coding. Bạn nào quan tâm thì liên hệ với chúng tôi nhé fred.dang@sift-ag.com.</t>
+  </si>
+  <si>
+    <t>Lớp học Business Analytics đầu tiên tại HCMC. Kết thúc 2 ngày, các bạn manager đã có được một bảng kế hoạch triển khai Business Analytics cho đơn vị. Chúc các bạn thành công.</t>
+  </si>
+  <si>
+    <t>Lớp INTRO Business Analytics For Managers và Analyst đầu tiên tại HCM đã kết thúc thành công sau hai ngày tập trung cao độ.
+Các học viên đã trao đổi và tranh luận sôi nổi về các kế hoạch triển khai Analytics trong năm 2018 bao gồm:
+- Chấm điểm rủi ro tín dụng - Credit Risk Scoring
+- Bán chéo và bán gia tăng - Cross-sell Up-sell
+- Dự báo KH rời bỏ dịch vụ - Customer churn
+- Dự báo giá và dự báo nhu cầu - Price &amp; Demand Forecast
+Hẹn gặp lại mọi người ở các khoá sau.</t>
+  </si>
+  <si>
+    <t>♦️HOT HOT HOT ĐỪNG BỎ LỠ CƠ HỘI THAM GIA♦️
+Topic "AI in computer science"
+---------------------------------------
+🎉Topic thứ 3 trong chuỗi Special Topics in Data Science phần nào giải đáp và cung cấp cho mọi người khối lượng kiến thức khủng về AI-Artificial intelligence chủ đề về trí tuệ nhân tạo trong thị giác máy tính chưa bao giờ là hết "hot" đâu nhé!!!
+😎Nhanh tay đăng ký để tham gia và học hỏi nhiều kinh nghiệm đến từ chuyên gia có lĩnh vực trong ngành bạn nhé
+--------------------------------------
+👉Link đăng ký: https://goo.gl/forms/JJaCBpEzX4R4237g2
+⁉️Ngày 18/04/2018- Thứ tư
+🕕Thời gian: 18:00h-21:00h
+🌏Địa điểm: Trung tâm tư vấn ứng dụng kinh tế (149, Pasteur, P.6, Q.3, TP.HCM)
+---------------------------------------
+Vì đây là chuỗi topic liên tục nên mọi người theo dõi fanpage Học Viện Số Quốc Tế -IDL để cập nhật thông tin thường xuyên nhé ^^</t>
+  </si>
+  <si>
+    <t>Hiện Zalo đang cần bổ sung thêm một vài bạn cho các dự án về AI như Computer Vision, NLP, recommendation system .
+JD vị trí:
+- Data Scientist: https://careers.zalo.me/job?id=CZW
+- Big Data Engineer: https://careers.zalo.me/job?id=D0
+CV hoặc thông tin thêm về các vị trí, vui lòng gửi qua mail: khanhvt@vng.com.vn ạ hoặc liên hệ 0120 488 9000 (Zalo) ạ.</t>
+  </si>
+  <si>
+    <t>Join Hiip để thay đổi ngành Influencer Marketing bằng AI:
+1. Được training và làm việc với đội ngũ gồm những Data Scientist du học từ Đức, Japan
+2. Được tham gia vào những project về computer vision, nlp, recommendation
+Contact ngay với viet.truong@hiip.asia
+Chi tiết: https://bit.ly/2IXeLP9</t>
+  </si>
+  <si>
+    <t>Chào các bạn,
+Uiza- Cty về Video Platform của Sing đang cần tuyển Data Scientist, Data Engineer. Bạn nàobwuan tâm xin gửi CV vào email: hr@uiza.io nhé
+Địa điểm làm việc: Lê Văn Sỹ, Q3</t>
+  </si>
+  <si>
+    <t>Đổi không khí tý nào.
+Bạn nào có muốn chia sẽ một Business Usecases mà mình đã giải quyết qua các Data Science Techniques hôm giờ Post quá trời lên được không?
+Như Team mình thường xuyên dùng Bayes Classifier để phân tích biến trong đánh giá tiêu chí tín dụng, mà hay gọi nôm na là phương pháp phổ thông.
+Rất muốn biết thêm về các bạn khác (Nếu chia sẻ được)</t>
+  </si>
+  <si>
+    <t>Hi mọi người,
+FPT Telecom TPHCM đang tuyển các vị trí Data Scientist , Data Engineer làm các dự án về Truyền hình như Recomendation System, Business Intelligent ...
+Các bạn quan tâm gửi CV về: quantm3@fpt.com.vn
+Xin cảm ơn</t>
+  </si>
+  <si>
+    <t>[GREAT NEXT STEP OF YOUR CAREER]
+Foster your career growth as Data Analyst Online at Home Credit. We offer you with:
+💯Competitive salary with attractive benefits
+🏟️Challenging projects with new technology
+👨‍⚖️Friendly, funny and pro-active team members
+🌏Professional European working environment
+✔️ DATA ANALYST ONLINE
+👉Link apply: https://www.homecredit.vn/en/career/#data-analyst-online
+🖲️For further assistant, kindly contact: recruitment@homecredit.vn</t>
+  </si>
+  <si>
+    <t>[HCMC - Recruitment]
+Happy Saturday all!
+ZALORA is the leading e-commerce company providing fashion throughout South East Asia. ZALORA's e-commerce platform is built with love by the engineering team in Singapore and Vietnam to serve millions of users in Malaysia, Singapore, Hong Kong, Taiwan, Indonesia, Philippines. This regional diversity presents a lot of interesting challenges that you and your colleagues will face. You will learn a lot by tackling these challenges.
+Currently we are seeking for:
+Data Engineer: https://bit.ly/2HyJIcM
+Data Scientist: https://bit.ly/2vcRq9Z
+..and other openings at http://jobs.zalora.com/
+Should you're interested in, you can apply directly via our job post or contact me for more discussion.
+I can be reached via:
+Email: phuong.huynh@zalora.com
+Skype: phuonghm11
+Thanks and have a nice weekend.</t>
+  </si>
+  <si>
+    <t>Bạn này post bài hỏi hơi kỹ thuật nên mình share sang group Data Science nhờ các bạn có kinh nghiệm trợ giúp.</t>
+  </si>
+  <si>
+    <t>Hi mọi người,
+Zalo đang open cho các vị trí Data Scientist, ưu tiên các bạn làm về NLP và recommendation system.
+JD vị trí vui lòng xem tại: https://careers.zalo.me
+Cv gửi về: khanhvt@vng.com.vn</t>
+  </si>
+  <si>
+    <t>[TÌM ĐỒNG ĐỘI]
+Mình làm Data Mining tại Viettel Cyberspace Center (vtcc.vn), đang có nhu cầu tìm chiến hữu:
+- Data Scientist / Senior Data Mining Developer
++ 2+ năm kinh nghiệm làm việc với Big Data (Spark), Machine Learning
++ Đã từng xây dựng và deploy thành công model
+- Data Engineer / Java-core Developer
++ 2+ năm kinh nghiệm Java / Scala
+Trao đổi thêm thì inbox mình, còn ứng tuyển thì gửi CV vào email quydv6@viettel.com.vn, ghi rõ vị trí apply giúp mình nhé.</t>
+  </si>
+  <si>
+    <t>[TÌM ĐỒNG ĐỘI]
+Mình làm Data Mining tại Viettel Cyberspace Center (vtcc.vn), đang có nhu cầu tìm chiến hữu:
+- Data Scientist / Senior Data Mining Developer
++ 2+ năm kinh nghiệm làm việc với Big Data (Spark), Machine Learning
++ Đã từng xây dựng và deploy thành công model
+- Data Engineer / Java-core Developer
++ 2+ năm kinh nghiệm Java / Scala
+Trao đổi thêm thì inbox mình, còn ứng tuyển thì gửi CV vào email quydv6@viettel.com.vn, ghi rõ vị trí apply giúp mình nhé.
+--- Chia sẻ cá nhân:
+Thiết nghĩ, đã làm sâu vào data thì phải chơi với dữ liệu lớn. Dữ liệu lớn thì cần computing power mạnh. Hiện tại VTCC là một trong những đơn vị hiếm hoi đáp ứng được 2 yêu cầu này. Chỗ bọn mình có nhiều dữ liệu lắm và có không ít tài nguyên (1500 NODE - 8Pb dữ liệu, xử lý 20TB dữ liệu/ngày).
+Dữ liệu viễn thông rất giàu và thú vị. Đây là tiền đề để sinh ra các bài toán đặc biệt lớn và hấp dẫn. Làm bài toán lớn thì mình có động lực, làm được thì trưởng thành, chưa làm đến nơi thì cũng học được nhiều điều.
+Viettel đang là nhà mạng chiếm thị phần lớn nhất Việt Nam (khoảng gần 60%). Viettel cũng rất chủ động đầu tư vào data và nhìn nhận nghiêm túc các cơ hội, bài toán liên quan.
+Vì network của mình có hạn, nên rất mong anh chị em bạn bè cô dì chú bác đi ngang qua có thể đem thông tin này đến với những người phù hợp. Mình xin cảm ơn và hậu tạ.</t>
+  </si>
+  <si>
+    <t>💢Data Science- Bạn đã biết đến ngành siêu "Sexy" thế kỷ XXI?
+➡️Data science, machine learning khác nhau ở điểm nào
+➡️Liệu ngành "Khoa học dữ liệu" có thực sự tốt
+➡️Nhà Khoa học dữ liệu thường sử dụng phương pháp gì?
+👇👇Đọc ngay để giải mã ngành khoa học dữ liệu mn nhé</t>
+  </si>
+  <si>
+    <t>Mời các bạn quan tâm đến Data Science và Business Analytics đến tham dự buổi tọa đàm ngày 6 tháng tư tại Thư Vien Tạ Quang Bửu - Đại học Bách khoa Hà Nội. Link đăng ký https://goo.gl/f16wCh</t>
+  </si>
+  <si>
+    <t>Nguyen Hong Van Cuối cùng thì mình cũng đã có thể tổ chức một buổi ở Hà Nội. Mời các bạn quan tâm đến lĩnh vực Data Science và Business Analytics hãy giành thời gian đến tham dự và đặt câu hỏi với 3 vị diễn giả của chúng ta nhé. Link đăng ký: https://goo.gl/f16wCh</t>
+  </si>
+  <si>
+    <t>Introduction to Speakers(Part 1) - Big Data and AI Leaders Summit 2018 -Sydney (26-27 April 2018)
+Buy your Tickets - https://goo.gl/ebDKk3
+1)Ashok Nair - Head of Data and Analytics , QBE
+2) David Garvin- Global Head of Quantitative Analysis, CommonWealth Bank
+3) Eric Charran -Chief Architect, Microsoft
+4) Anuja Mehrotra - Data Scientist, Sydney Opera House
+5) Ric Clarke - Director, Emerging Data and Methods, Australian Bureau of Statistics</t>
+  </si>
+  <si>
+    <t>Andafin is looking for Vietnam-based data engineers to help enhance the cloud analytics platform we use to provide insights to banks across Asia and Africa -- visit https://www.andafin.com/careers to learn more</t>
+  </si>
+  <si>
+    <t>TOP DATA SCIENCE AND MACHINE LEARNING METHODS, USING AT WORK. FROM 10.153 RESPONDENTS.
+#BusinessAnalytics #DataMining #MachineLearning #PredictiveAnalytics</t>
+  </si>
+  <si>
+    <t>Sau nhiều tháng chuẩn bị, mình sẽ triển khai thử nghiệm chương trình training Business Analytics vào tháng 4 và hy vọng sẽ cùng các trường Đại học và Học viện triển khai rộng rãi trong tháng 5.
+Nhưng trước hết, mình rất cần các bạn giành 5-10 phút chia sẽ trong survey này https://goo.gl/xFmYVK
+Mình sẽ làm việc với ban tổ chức để đưa ra các offer hấp dẫn cho các bạn đã giành thời gian chia sẽ.</t>
+  </si>
+  <si>
+    <t>Gửi các bạn, trong tháng 4 sắp tới SIFT sẽ phối hợp với JVN Institute - Vietnam National University HCMC để cùng thử nghiệm chương trình Business Analytics tại Vietnam. Để hiểu rõ hơn về nhu cầu, mình rất mong nhận được sự chia sẽ từ mọi người. Hãy giành 5-10 phút làm khảo sát tại https://goo.gl/xFmYVK
+Nếu có thể, giúp mình chia sẽ lên tường của bạn để mọi người cùng biết đến chương trình này nhé.</t>
+  </si>
+  <si>
+    <t>Link khảo sát chương trình Business Analytics for Vietnamese: https://goo.gl/xFmYVK
+Các bạn hãy giành 5-10 phút chia sẽ với chúng tôi về chương trình Business Analytics tại Vietnam nhé. Những khóa học đầu tiên sẽ được triển khai ngay trong tháng 4 và tháng 5 năm nay.
+JVN Institute - Vietnam National University HCMC Đại Học Kinh Tế - Luật - ĐHQG Tp.HCM</t>
+  </si>
+  <si>
+    <t>Apply today for The Data Incubator’s Free Data Science Fellowship Program. The Data Incubator is an intensive 8 week fellowship that prepares current and graduated masters, PhDs, and postdocs in STEM and social science fields seeking industry careers as data scientists. We teach about data engineering, machine-learning, analytics, visualization and many other big data topics. The program is free for Fellows and supported by sponsorships from hundreds of employers across multiple industries. In response to the overwhelming interest in our earlier sessions, we will be holding another fellowship.
+Locations: There will be both an in-person (in NYC, DC, SF, Boston, Seattle) and online section of the fellowship.
+Dates: All sessions will be from 2018-06-24 – 2018-08-16.
+Application:</t>
+  </si>
+  <si>
+    <t>Em xin chào mọi người ạ. Công ty Eastgate Software tại Thái Hà đang có nhu cầu tuyển vị trí Data Scientist. Em xin phép được share thông tin tuyển dụng trong group ạ. Em cám ơn😘
+https://www.facebook.com/eastgate.software/posts/1738998872833892</t>
+  </si>
+  <si>
+    <t>EGS'S HIRING!!!!!!!!
+💎 THE IDEAL CANDIDATES:
+• 01 C++ Developer ($850-$1350)
+• 02 Data Scientist ( $800- $1500)
+• 01 PHP Web Developer ( $900 -$1300)
+• 01 Big Data Developer ($800-$1500)
+• 01 Java Developer ($800-$1500)
+🔥 BENEFITS:
+- Enjoy a competitive salary range with many other bonuses (project bonus, performance bonus, holiday bonus...)
+- Raise the salary immediately when you show your power, your responsibility, your humor... 😜
+- Take chances to challenge your English skill by working with experts all around the world with many different accents
+- Receive up to 20 days-off/year
+- Enjoy 4 outing trips/years, many team-building activities...
+✨ CONTACT US:
+Send us your CV (English) to:
+Email: recruitment@eastgate-software.com
+Or reach us at: Tel: 024 6276 3566
+FB: www.facebook.com/eastgate.software
+#itjob_java;#itjob_c++; #itjob_senior; #Bigdata; #Big Data Analyst; #BigDataJob; #ITviec; #ITJob;#TuyểndụngIT; #itrecruitment ; #php; #bigdata #bigdataDevelopment #bigdataTesting #bigdataAdministration #hadoop #hbase #hive #mongodb #DataMining #PredictiveAnalytics #DataScience #MachineLearning #DeepLearning #Scala #Python</t>
+  </si>
+  <si>
+    <t>Xin chào mọi người trong cộng đồng Data Science Việt Nam. Team mình hiện tại có mong muốn gặp và giao lưu cùng mọi người trong TP.HCM. Mình post lên đây xem anh chị em nào hứng thú thì comment nhé.</t>
+  </si>
+  <si>
+    <t>Get technology, jobs updates and certified on #bigdata #bigdataDevelopment #bigdataTesting #bigdataAdministration #hadoop #hbase #hive #mongodb #DataMining #PredictiveAnalytics #DataScience #MachineLearning #DeepLearning #Scala #Python - ***www.facebook.com/bigdatatrainings***.
+Certification details - ***www.exuberantsolutions.com/informationmanagment.htm***</t>
+  </si>
+  <si>
+    <t>BizOne is an IT consulting company focused on Business Intelligence, Advanced Analytics and Data Warehouse solutions. We develop solutions that put very high demands on architecture, information architecture and interface.
+We have product specialists on Microsoft Business Intelligence, MicroStrategy, Pentaho, Talend, R and Python. We also have BI generalists working with architecture, data modelling, data mining, machine learning, project management and social analytics.
+Want to learn more? Please contact me via email: peter.hoang@bizone.co.th or visit our website: https://bizone.co.th
+#BizOne #BizOneAsia #Microsoft #MicrosoftBI #MicrosoftAzure #SQLServer #BusinessIntelligence #DataManagement #DataAnalytics #MicrosoftGoldPartner #MicrosoftSolutionsProvider</t>
+  </si>
+  <si>
+    <t>Home Credit is looking for a Senior Data Engineer who has Cloud/BI/AWS experiences.
+#Working Location: District 2, Ho Chi Minh City.
+#Reporting to: Data Architect Manager - Foreigner.
+#Benefits:
+- 13th Salary Fixed and KPI Bonus
+- AON Health Care
+- 24/7 Accidental Insurance
+- 100% Social Insurance Pay
+- Meal Allowance
+- Yearly Medical Checkup
+- 15 Annual Leaves
+- Professional and Transparent Working Environment.
+- Apply Latest Financial Technology in the World
+- Chance to Provide Training and Be Trained Onsite at Home Credit in 11 countries.
+Please do not hesitate to contact me for further information.
+Thank you.
+Email: cuong.dm3@homecredit.vn</t>
+  </si>
+  <si>
+    <t>Công ty IT của Nhật tại Hà Nội cần tuyển Data Scientist, Data Analyst có kinh nghiệm và có khả năng sử dụng tiếng Nhật để phát triển mảng công nghệ này. Ứng viên được chọn sẽ được cử đi đào tạo tại Nhật và đảm trách vai trò trưởng bộ phận với đãi ngộ hấp dẫn.
+Yêu cầu chung:
+- Có kiến thức và kinh nghiệm về Big Data, Data analysis.
+- Có thể sử dụng, trao đổi được bằng tiếng Nhật (N3 trở lên)
+- Cam kết gắn bó lâu dài.
+Chi tiết liên hệ qua facebook hoặc email trannam136@gmail.com.
+Thanks</t>
+  </si>
+  <si>
+    <t>Get Informative Free Data Science Demo Session By Industry Experts Will Commence On 4th March @10 AM At #OrienIT
+For Registration: https://goo.gl/1fxJo2
+#DataScienceFreeDemo #DemoinHyderabad #Hyderabad #DataScience #FreeDemo #Education #DataScienceCourse</t>
+  </si>
+  <si>
+    <t>Không biết trong group này có bạn nào quan tâm đến việc được đào tạo các kiến thức Thống kê, Data mining và Visualization không? Mình đang có ý định phối hợp với các trường DH VN để đào tạo ngành Analytics cho xã hội. Hãy cho mình ý kiến cá nhân của các bạn nhé.</t>
+  </si>
+  <si>
+    <t>Thống kê, Data mining và Visualisation là 3 kỹ năng mà các công ty hàng đầu thế giới đánh giá rất cần thiết và quan trọng trong việc ứng dụng Analytics.
+Theo "ANALYTICS: DON’T FORGET THE HUMAN ELEMENT", EY and Forbes 2015
+#StatisticsProfiency #Datamining #Visualization #Reporting</t>
+  </si>
+  <si>
+    <t>Giành cho bạn nào quan tâm đến Business Analytics. JVN sẽ phối hợp với UEL và SIFT để cùng đào tạo Analytics Leader trong tương lai.</t>
+  </si>
+  <si>
+    <t>We deal in Data Science projects | Nex-G Innovations | ***www.nexg.in***</t>
+  </si>
+  <si>
+    <t>[AI PRODUCT DEVELOPMENT]
+A social network giant is investing in a Development Center in Vietnam to attain their aim of breaking into the world of Artificial Intelligence.
+If you possess a keen interest in Machine Learning and Data Science, the below job opportunities are absolutely for you:
+- Technical Project Manager
+- Back-end Server Engineer
+- Machine Learning Engineer
+Please kindly send your updated CV to my email at trinh.pham@adecco.com or ping me privately for more information.</t>
+  </si>
+  <si>
+    <t>I’m looking for experienced data scientists to work with deep learning, machine learning, NLP, computer vision. TM me if you are interested.</t>
+  </si>
+  <si>
+    <t>[HCM] Fullstack Engineer - [700-1500$] - Product (BI, Data Analytics)
+Hi bà con, em là Linh headhunter. Em đang tìm bạn Fullstack Engineer (junior-senior) cho 1 công ty product về BI, data platform ở TPHCM, tiếng Anh đọc hiểu tốt, có kĩ năng problem-solving, có kiến thức hoặc kinh nghiệm (Rails, Ruby, PostgreSQL, Redis, SQLs, AngularJS, ES6). Môi trường khá là thử thách nên cần các bạn chịu khó học hỏi, chăm chỉ, giàu nhiệt huyết. Khách hàng của product này được kể đến là Grab,The Coffee House (VN), Traveloka, Tech In Asia v.v
+Các bạn sẽ được trải nghiệm với các dự án tương tự
+🍉Zero-downtime deployment for long-running background jobs
+🍉Writing a database abstraction layer to interface with different database technologies at once: PostgreSQL, MySQL, Redshift, BigQuery, Presto
+🍉Implement alert monitoring system using statistical algorithms
+ETL customer’s data from MongoDB to relational DBs with minimal overhead.
+🍉Parsing SQL into an AST (abstract syntax tree) to understand semantics and suggest optimizations
+🍉Build a sandbox environment to execute arbitrary Python code that still ensures security
+Nếu bạn nào quan tâm thì contact em qua INBOX hoặc
+Skype: dieulinhht
+Email: dieulinh.ht234@gmail.com (ưu tiên)
+nha. Thanks bà con nhìu
+#BI #businessintelligence #ruby #Javascript #angular #rail #ES6 #redis #SQL #python #etl #dataplatform</t>
+  </si>
+  <si>
+    <t>HOT JOB IN HANOI, VIETNAM - DATA SCIENTIST ($1000 - $1700)
+Chào mọi người, hiện nay công ty mình, Eastgate Software, tại Thái Hà, Hà Nội đang cần tuyển 2 Data scientists làm việc trực tiếp với các chuyên gia, senior về Big data tại Hà Nội.
+Mô tả vị trí như sau, mong mng quan tâm:
+💼 Your responsibilities:
+- Work in a big project with many senior/expert people
+- Mine and analyze data from databases to drive optimization and improvement of product development
+- Define mechanism/ techniques to gathering accuracy information from many data sources
+- Develop custom data models and algorithms to apply to data sets.
+- Use predictive modeling to increase and optimize customer experiences
+- Develop A/B testing
+- Coordinate with different functional teams to implement models and monitor outcomes
+- Develop processes and tools to monitor and analyze model performance and data accuracy
+💎 The ideal candidate:
+- Bachelor’s degree or higher in Computer Science, Information Technology or equivalent
+- Strong passion for big data and data science
+- Strong analytical mindset and problem-solving skills
+- Experience with one or more of the following programming languages: Java, Scala, Python, R
+- Experience implementing machine learning &amp; analytics algorithms on Hadoop: classification, recommendation, NLP
+- 2+ years’ experience with Hadoop such as Impala, Hive, Pig, HBase, MapReduce, Spark.
+- Good English communication is a plus
+🔥 Benefit:
+- Full salary in the 02 month probation period
+- Have more opportunities working with and learning from many experts around the world (Germany, US, Japan, Belarus, Bulgaria and Finland…)
+- Join in Dynamic &amp; Flexible Working Environment
+- 20 leave days/year; annual outing trip; monthly workshop/course fee…
+- Yearly outing trip, quarterly teambuilding trip
+- Have Hot Project Bonus</t>
+  </si>
+  <si>
+    <t>Xin chào mọi người, nhân dịp mình đọc được 1 bài post trên Linkedin của 1 anh chàng Data Scientist đang tìm việc ở Mỹ. Anh này đang ở US và apply 300+ vị trí với vài lần phỏng vấn nhưng vẫn chưa có được job offer.
+Trong khoảng 500 comments mình thấy có một vài comment có thể hữu ích cho các bạn đang muốn theo đuổi ngành Data Science.
+Và tất nhiên, hoàn cảnh anh này sẽ khác với các bạn đang ở Vietnam khi mà "Cung" ít hơn "Cầu". Nếu bạn là anh này, bạn sẽ về VN đầu quân về VN hay ở lại US tìm kiếm?</t>
+  </si>
+  <si>
+    <t>Dân dịp đầu năm AL cũng là thời điểm các bạn đang cân nhắc về tương lai nghề nghiệp cũng như lên kế hoạch phát triển team, nếu bạn đang quan tâm đến Phân tích Kinh doanh (Business Analytics) thì có thể tham khảo bài viết được đăng trên Forbes bên dưới.
+Trong bài viết này, mình thấy định nghĩa khá rõ về vai trò và kỹ năng cần thiết của 3 nhóm nghề mà các bạn có thể lựa chọn: Data Analyst, Business Analytics Professional, và Predictive Analytics Professional.
+Theo mình, các doanh nghiệp Việt Nam sẽ cần rất nhiều nhân sự ở cấp manager lẫn professional trong 2 năm tới để thực sự thấy được hiệu quả trong kinh doanh.
+Cuối cùng, xin chúc mọi người một năm mới thành công và nhiều sức khỏe!</t>
+  </si>
+  <si>
+    <t>Ngoài việc giúp các bạn quan tâm lựa bọn công việc phù hợp. Mình thấy bài này cũng có nhiều ý nghĩa cho người quản lý trong việc tổ chức Team Phân tích Dữ liệu Kinh doanh (Business Analytics). Liệu rằng chúng ta cần Data Analyst hay Business Analytics Professional hay là Predictive Analytics Professional.
+Chúc mọi người đạt được nhiều thành công trong năm 2018 với Business Analytics!!!</t>
+  </si>
+  <si>
+    <t>Một bài viết của tác giả Piyanka Jain định nghĩ khá rõ về sự khác nhau giữa 3 nhóm nghề liên quan đến Analytics: Data Analyst, Business Analytics Professional và Predictive Analytics Professional.
+Các bạn nào đang quan tâm đến Analytics thì hãy cùng tham khảo và chia sẽ suy nghĩ với SIFT Analytics Group nhé.
+https://www.forbes.com/…/5-steps-to-transition-your-caree…/…</t>
+  </si>
+  <si>
+    <t>Chúc mừng năm mới các bạn trong nhóm Data Science &amp; Big Data Vietnam : "Kết nối kinh doanh - Khởi nguồn thành công"</t>
+  </si>
+  <si>
+    <t>Check out the January episode of our FREE monthly Data Science webinar, Data Science in 30 Minutes with @KDnuggets founder Gregory Piatetsky-Shapiro! Get the video of this episode for free on our blog http://bit.ly/2scjB7w
+From Data Mining to Knowledge Discovery to Data Science: Gregory Piatetsky talks about his pioneering career in data science, including founding KDnuggets, and co-founding KDD Conferences and ACM SIGKDD, and examines current trends in the field, Data Science Automation, citizen Data Scientists, and implications of AI.</t>
+  </si>
+  <si>
+    <t>HOT JOBS IN VIETNAM - FOR VIETNAMESE ONLY
+[📣HCM📣] - TMA Innovation Center tuyển gấp các vị trí Fullstack Web Developer - FrontEnd Developer - từ #fresher đến #Chuyên_Gia [Data Scientist - AI / IoT Engineer - R&amp;D Engineer - Software Architect]📣📣
+----------------------------------------------------------
+TMA Innovation Center chuyên nghiên cứu và phát triển các ý tưởng với giải pháp công nghệ mới như:
+👉Big Data
+👉Internet of Things
+👉Artificial Intelligence
+👉Machine Learning/ Deep Learning
+👉Fintech
+cho các khách hàng quốc tế và tại VN.
+-----------------------------------------------------------
+Tuyển:
+💢 1 Frontend Developer ( trên 2 năm kinh nghiệm)
+💢 2 Fullstack Developer
+💢 15 Freshers/Internship IoT, AI/ML, Big Data, Fintech: (không cần kinh nghiệm, công ty sẽ đào tạo)
+💢 3 R&amp;D Software Architect IoT, AI/ML, Big Data, Fintech:
+💢 5 R&amp;D Engineer IoT, AI/ML, Big Data, Fintech:
+-----------------------------
+💢 Mức lương hấp dẫn.
+💢 Được tham gia chương trình đào tạo từ cơ bản đến nâng cao do công ty tài trợ.
+💢 Các hoạt động vui chơi, team building đa dạng và thường xuyên
+-----------------------------
+Các bạn có hứng thú vui lòng gửi CV về 📨contact@tma-innovation.center📨
+Hoặc inbox để biết thêm chi tiết!
+🏩🏩TMA Tower, Đường số 10, công viên phần mềm Quang Trung, 1 Tô Ký, Quận 12, Tp.HCM
+📞📞+84 28 3997 8000 (Ext: 5945)
+#TuyenDung #IOT #AI #ML #Fintech #Job #TMA #Innovation #Hot #Recruit #BigData #CongNghe #Tech #Technology #BetterLife</t>
+  </si>
+  <si>
+    <t>Cơ hội trở thành một trong những thành viên đầu tiên tại Vietnam Tech Hub của ShopBack, super Singapore start-up: http://bit.do/shopback-vn-fullstack. Là nơi để full-stack developer phô diễn tài năng, thông qua việc phát triển và vận hành hệ thống có khả năng hỗ trợ tốc độ phát triển cực nhanh của ShopBack. Và tất nhiên không thiếu đất diễn cho Data Scientist, Data Engineers (trong tương lai gần).
+Lương cạnh tranh, chính sách cổ phiếu cho mọi nhân viên, và phỏng vấn cũng cực kỳ khó 😀
+Apply tại http://bit.do/shopback-vn-fullstack, hoặc PM mình nếu bạn cần thêm chi tiết</t>
+  </si>
+  <si>
+    <t>PERCEPTUAL MAPPING
+#BusinessAnalytics #DataMining #BigData #CustomerInsight
+Perceptual Mapping has been used in Marketing Research for more than 40 years and is now seen as standard practice by many marketing researchers. Once upon a time, however, it was cutting edge and there was a lot of hype about it. Some proponents touted it as The Answer to just about any marketing challenge as well as The Way to white space - unexploited opportunities.
+The hype subsided long ago and, if anything, now it may not be taken seriously enough. The fundamental ideas are tried &amp; true, but Perceptual Mapping is sometimes conducted sloppily - almost as an afterthought - or seen as push-button analytics. A predicable consequence is that its quality and value have diminished in recent years.
+- Why do we do it?
+- What kind of data do I need?
+- What method should I use?
+- How do I read a map?
+- How do I make decisions?</t>
+  </si>
+  <si>
+    <t>Top 10 use-cases for data science and machine learning
+#DataMining #DataScience #MachineLearning #BusinessAnalytics</t>
+  </si>
+  <si>
+    <t>[📣HCM📣] - TMA Innovation Center tuyển gấp các vị trí từ #fresher đến #Chuyên_Gia📣📣📣📣 [Data Scientist - AI Engineer - R&amp;D Engineer - Software Architect]
+----------------------------------------------------------
+TMA Innovation Center chuyên nghiên cứu và phát triển các ý tưởng với giải pháp công nghệ mới như:
+👉Big Data
+👉Internet of Things
+👉Artificial Intelligence
+👉Machine Learning/ Deep Learning
+👉Fintech
+cho các khách hàng quốc tế và tại VN.
+-----------------------------------------------------------
+Tuyển dụng cho IoT, AI/ML, Big Data, Fintech:
+💢 15 Freshers/Internship(không cần kinh nghiệm, công ty sẽ đào tạo)
+💢 3 R&amp;D Software Architect
+💢 5 R&amp;D Engineer
+-----------------------------
+💢 Mức lương hấp dẫn.
+💢 Được tham gia chương trình đào tạo từ cơ bản đến nâng cao do công ty tài trợ.
+💢 Các hoạt động vui chơi, team building đa dạng và thường xuyên
+-----------------------------
+Các bạn có hứng thú vui lòng gửi CV về 📨contact@tma-innovation.center📨
+Hoặc inbox để biết thêm chi tiết!
+🏩🏩TMA Tower, Đường số 10, công viên phần mềm Quang Trung, 1 Tô Ký, Quận 12, Tp.HCM
+📞📞+84 28 3997 8000 (Ext: 5945)
+#TuyenDung #IOT #AI #ML #Fintech #Job #TMA #Innovation #Hot #Recruit #BigData #CongNghe #Tech #Technology #BetterLife</t>
+  </si>
+  <si>
+    <t>Vị trí này chắc không cần đến Data Scientist. Tuy nhiên, ai quan tâm thì có thể apply vào công ty rao vặt hàng đầu VN nhé.</t>
+  </si>
+  <si>
+    <t>[HIRING- LEAD DATA SCIENTIST]
+You will have opportunities to collaborate with and be advised by experienced Data Scientists from SILICON VALLEY, with decades of experience in big data, AI and machine learning.
+EXCITED! please send your resume to hr@gigatum.com...
+Đọc tiếp</t>
+  </si>
+  <si>
+    <t>BUSINESS ANALYTICS &amp; INTELLIGENCE
+#BusinessAnalytics #BusinessIntelligence #DataMining #BigData #MachineLearning
+In today’s hyper-connected world, data – structured, unstructured, semi-structured – carrying critical information is soaring in volume. The rapid growth of information is leading to the problem of extracting the useful information from the variety of data. Business Analytics &amp; Intelligence addresses these challenges. With the help of BI, organizations can monitor and track KPIs in the form of reports, dashboards – which can answer few questions like – “what had already happened?”, “what will happen next?”, “what is the best that can happen?” – Answer to these questions can help organization in forecasting about their business. BI &amp; BA can help you in making data driven decisions to face the business challenges.</t>
+  </si>
+  <si>
+    <t>Chào các bạn Data Scientist quan tâm đến Data Analytics. Hiện nay các công ty đang cần tuyển dụng các vị trí Business Intelligent Analyst và Business Analytics Analyst. Bạn nào ở HCMC thì liên hệ mình nhé. Fred.dang@sift-ag.com</t>
+  </si>
+  <si>
+    <t>Chào các bạn BA quan tâm đến Data Analytics. Hiện nay các công ty đang cần tuyển dụng các vị trí Business Intelligent Analyst và Business Analytics Analyst. Bạn nào ở HCMC thì liên hệ mình nhé. Fred.dang@sift-ag.com</t>
+  </si>
+  <si>
+    <t>Some Applications of Predictive Modeling and Data Mining
+#PredictiveAnalytics #DataMining #BusinessAnalytics
+Every organization can benefit from predictive modeling and data mining. A few examples include the following:
+- Analytical Customer Relationship Management (CRM) – Direct Marketing (Database) Marketing
+- Risk / Fraud
+- Pharmacological, Genetics and Health Research
+- Time Series Forecasting
+Mọi người có thể chia sẻ thêm các model hoặc các phương pháp ứng dụng và Benefit của Predictive Analytics vào Business không ạ?</t>
+  </si>
+  <si>
+    <t>Có một số bạn học Kinh tế, Toán ứng dụng, Thống kê, Tài chính hỏi mình về nghề Data Scientist trong bối cảnh CMCN 4.0 và khai thác Bigdata. Theo mình, các bạn có thể chọn lựa nghề Business Analyst cho các dịch vụ như Risk, CRM, Customer Experience, Logistics...
+Các vị trí Analyst này đều đòi hỏi kỹ thật phân tích thống kê (statistical analyst) và xây dựng các mô hình dự đoán hoặc mô hình tối ưu, tùy theo mức độ phức tạp và yêu cầu nghiệp vụ như bên dưới mà các bạn.</t>
+  </si>
+  <si>
+    <t>Trong việc xây dựng chiến lược Analytics cho doanh nghiệp, việc xác định hiện trạng cũng như khả năng sẵn sàng là bước đầu tiên.
+#SIFTAnalytics xin phép chia sẽ các bậc thang Analytics (Ladder) mà Hệ thống Thông tin Hỗ trợ Ra quyết định (Decision Support System - DSS) phát triển theo nhu cầu Quản trị.
+Hãy liên hệ với chúng tôi nếu bạn cần chia sẽ thêm về ứng dụng Analytics ở doanh nghiệp Việt Nam.</t>
+  </si>
+  <si>
+    <t>Được sự đồng ý của Mr Vũ, mình xin phép chia sẽ bài viết này cho cộng đồng Analytics. Bạn nào quan tâm đến Analytics cho Ngân hàng thì liên hệ trực tiếp với Mr vudx@ocb.com.vn nhé.</t>
+  </si>
+  <si>
+    <t>💡 KHÔNG DỄ KHI TUYỂN DATA SCIENTIST ĐAM MÊ LÀM SẢN PHẨM CHO ZALO/ AI LAB!
+Ngành IT lâu nay vẫn được xem là năng động và cạnh tranh nhất trong thị trường nhân sự, với đủ thứ "hashtag" đến đến đi đi như bitcoin, blockchains, fintech... Để tăng thêm "nhiệt" cho mùa cuối năm, Zalo tuyển dụng Scientist cho Zalo product &amp; AI lab giải quyết những bài toán quy mô lớn, đúng xu hướng và thật sự xứng tầm. Nếu bạn:
+💧 Có background làm data Scientist/Research.
+💧 Ham học hỏi và đam mê làm sản phẩm Mobile.
+#Zalo #Zalotalent #ZaloHackathon #ZaloCareers
+Nếu bạn tự tin là 1 người đam mê công nghệ, hãy gửi ngay CV về hienntn@vng.com.vn hoặc 0908903053!</t>
+  </si>
+  <si>
+    <t>[📣Tin Hot 📣] - TMA Innovation Center tuyển gấp các vị trí từ #fresher đến #Chuyên_Gia📣📣📣📣
+----------------------------------------------------------
+TMA Innovation Center chuyên nghiên cứu và phát triển các ý tưởng với giải pháp công nghệ mới như:
+👉Big Data
+👉IoT
+👉Artificial Intelligence
+👉Machine Learning/ Deep Learning
+👉Fintech
+cho các khách hàng quốc tế và tại VN.
+-----------------------------------------------------------
+Tuyển dụng cho IoT, AI/ML, Data Science, Fintech:
+💢 15 Freshers (không cần kinh nghiệm, công ty sẽ đào tạo)
+💢 3 R&amp;D Software Architect
+💢 5 R&amp;D Engineer
+-----------------------------
+Các bạn có hứng thú vui lòng gửi CV về 📨contact@tma-innovation.center📨
+Hoặc inbox để biết thêm chi tiết!
+🏩🏩TMA Tower, Đường số 10, công viên phần mềm Quang Trung, 1 Tô Ký, Quận 12, Tp.HCM
+📞📞+84 28 3997 8000 (Ext: 5945)
+#TuyenDung #IOT #AI #ML #Fintech #Job #TMA #Innovation #Hot #Recruit #BigData #CongNghe #Tech #Technology #BetterLife</t>
+  </si>
+  <si>
+    <t>Một anh bạn làm ở NHTMCP phía bắc đang tìm Data Analyst để thực hiện các dự án về Customer Analytics năm tới, ai quan tâm thì inbox nhé.</t>
+  </si>
+  <si>
+    <t>Hello mọi người, giới thiệu với mọi người 1 FB community, trong đó có chia sẻ, thảo luận, hỏi đáp interview questions các nghành data scientist/data engineer/backend/software programming.., review môi trường làm việc của những công ty có văn hóa open, results oriented, thảo luận về các việc làm phù hợp cho du học sinh khi về nươc.
+Welcome các bạn tham gia group https://www.facebook.com/groups/connected3viec/ đồng thời
+check out và Like Page của group: http://bit.ly/2Ck5Lnh. Happy new year everyone!</t>
+  </si>
+  <si>
+    <t>Các ngành như MIS, Business Analytics, Data Engineer, Business Administration có thể đăng ký để được tham gia chương trình hỗ trợ giáo dục từ Qlik. Hãy liên hệ chúng tôi nếu bạn có ý định đào tạo Analytics nhé.
+Qlik Expands Academic Program with Mission to Bridge the Data Literacy Gap. Enhanced Curriculum Prepares Students for the Analytics Economy
+https://www.qlik.com/…/p…/0103-qlik-expands-academic-program</t>
+  </si>
+  <si>
+    <t>MINI HACKATHON - LẦN 1 - 2018
+Các bạn trong Forum có thích tham gia những cuộc thi Mini Hackathon để bắt đầu, củng cố, hay nâng cao kiến thức về Khoa học dữ liệu (Data Science) cùng với Viện John von Neumann không ? Dự thi hoàn toàn miễn phí nhưng giải thưởng cũng hấp dẫn nhé!
+Mời các bạn tham khảo tại đây:
+https://m.facebook.com/story.php?story_fbid=1814457668596706&amp;id=127125950663228</t>
+  </si>
+  <si>
+    <t>Đầu năm là thời điểm thích hợp để nói về xu hướng trong năm mới. Xu hướng của big data và data science của năm 2018 sẽ như thế nào? Đây là 1 góc nhìn khá thú vị: https://channels.theinnovationenterprise.com/…/big-data-top…
+Vậy là trong năm 2018, Big Data sẽ "chết" (hoặc bị đem chôn sống) 🤣 Gặp bạn bè không nên nổ "tớ làm big data" mà cần nói cụ thể làm công nghệ gì, giải quyết bài toán gì liên quan đến big data. AI, IoT, blockchain, Cloud... và cả "big data hacker" cũng sẽ phát triển rực rỡ trong năm 2018!
+Sau hết, khi đọc những bài báo kiểu "top trends" mọi người lưu ý thường có 70% là những cái ai cũng biết rồi, 30% còn lại thường không đúng 😊
+Happy new year 2018 to Data Science and Big Data Vietnam Community!</t>
+  </si>
+  <si>
+    <t>Today is the last day of year 2017. On behalf of the Data Science and Big Data Vietnam community, we, Thuan Le, Duy Ngan Le, Vinh Huynh and Quang Hieu Vu, the group's admins, wish all group's members a fruitful and prosperous new year 2018. Happy New Year!</t>
+  </si>
+  <si>
+    <t>Due to the popularity of the Winter sessions of our online courses, we're excited to announce that we've extended the early registration discount through the end of December! If you register by 11:59pm ET on December 31st, you'll receive an additional $600 off both courses! Just use the promo code ‘DECEMBER600’.
+Our Data Science Foundations course covers two themes: Introduction to Data Wrangling and Introduction to Predictive Analytics. Over the course of eight weeks, students learn how to analyze data using Python, build models to make better business decisions, and predict trends.
+January 16th - March 8th
+Course page: https://www.thedataincubator.com/foundations.html
+Sign up here - https://www.eventbrite.com/e/winter-data-science-foundation…
+Our Machine Learning course was designed to give students hands-on experience with the most in-demand machine learning skills. Students will gain a thorough understanding of the mathematical and statistical underpinnings of machine learning, as well as the practical skills needed to harness the power of raw data to solve pressing business problems.
+January 15th - March 7th
+Course page: https://www.thedataincubator.com/machine-learning.html
+Sign up here: https://www.eventbrite.com/e/winter-data-science-machine-le…</t>
+  </si>
+  <si>
+    <t>We believe the best way to learn AI/Deep Learning/Machine learning and Data Science is to enable people to access the reproducible codes on Jupyter.
+Notebook lets you explore million notebooks on Github and more. Enjoy the Jupyter Notebooks and Happy modeling. Happy new year 2018. &lt;3</t>
+  </si>
+  <si>
+    <t>Chào các anh chị,
+Em đang học về Informatic System ở Đức và sắp đến học kì làm Master thesis. Hiện tại em đang thực tập ở công ty dữ liệu Influencer Marketing và chủ yếu làm model Machine Learning (neural network) bằng Python. Em vốn xuất phát từ tài chính, ko có background coding mạnh nên sếp hiện tại (cũng là người hướng dẫn) em đề nghị là chọn đề tài luận văn gắn với Python vì Data Science hiện nay chủ yếu làm với Python hơn là R hay java nên nó sẽ cho em nhiều cơ hội hơn.
+Em tin sếp em, câu chuyện là em có dự định về VN sau khi tốt nghiệp chứ ko ở lại Đức. Em đã xem qua các trang tuyển dụng ở VN thấy Python không được nhắc đến nhiều như ngôn ngữ chính (mặc dù nhìn trend thế giới thì thấy quá rõ), và ngành Data Science vẫn chưa đc miêu tả rõ ràng mà phần nào đó giống IT hay computer science hơn là data science.
+Em đã chọn đề tài thuộc về Machine learning nhưng ngôn ngữ lập trình thì em chưa chọn vì em thấy R hay Python hay Java đều có Library mạnh và học ngôn ngữ thật ra cũng mất thời gian nhiều. Anh chị có thể cho em ý kiến là em nên chọn ngôn ngữ gì để có lợi thế hơn khi về VN ko? Vì mảng data science ở VN em không rõ xuất phát ntn, đã đi đến đâu, và sẽ phát triển theo hướng nào so với TG nên cũng không muốn liều đầu tư thời gian và công sức xong rồi không có chỗ dùng.
+Mong anh chị tư vấn và chỉ bảo thêm.
+Em cám ơn.</t>
+  </si>
+  <si>
+    <t>A good event for data engineers</t>
+  </si>
+  <si>
+    <t>Chào mọi người!
+Em tốt nghiệp đại học Kinh Tế HCM ngành tài chính và có nghiên cứu thống kê cơ bản. Em có hơn 1 năm kinh nghiệm trong ngành market research ( quanti) và có kiến thức về SPSS. Hiện tại em đang học R và muốn trở thành data Scientist.
+Mọi người cho em hỏi muốn trở thành data Scientist thì cần học thêm những gì? Có công ty nào tuyển fresh về ngành này không ạ?
+P/S: Cho em hỏi luôn là R muốn thực hành thì nên tìm tài liệu ở đâu ạ?</t>
+  </si>
+  <si>
+    <t>Chào anh chị,
+Em là developer thuần túy, chưa có kinh nghiệm và cũng chưa nghiên cứu sâu về Data Science hay AI. Em có câu hỏi băn khoăn:
+- Đâu là sự khác nhau giữa Data Mining, Data Science và AI, về học thuật lẫn thực tế công việc ? Ở Việt Nam mình thì hướng nào có tiềm năng phát triển hơn ?
+- Với một người có background về programming và algorithms tốt hơn math và statistics thì nên theo lĩnh vực nào để tận dụng được thế mạnh cũng như có cơ hội làm việc, vận dụng kiến thức tại môi trường Việt Nam.
+Em cảm ơn.</t>
+  </si>
+  <si>
+    <t>Hi All....Greetings from #ExcelR!
+People who are looking for #Analytics #DataScience #IoT #DataVisualization #Online #Offline #Trainings.
+For more details, please WhatsApp me @ 9989994319
+(Please ignore if you are already been a part of ExcelR)</t>
+  </si>
+  <si>
+    <t>Hi All....Greetings from ExcelR!
+People who are looking for #Analytics #DataScience Online Live Program from 25th Oct'17 onwards @ 7:00 A.M. IST. Please join our WhatsApp group "ExcelR Support" and get all details.
+https://chat.whatsapp.com/ELigcPJrQLL4Vwf4oV8ZmS
+(Please ignore if you are already been a part of ExcelR)</t>
+  </si>
+  <si>
+    <t>Hi All....Greetings from ExcelR!
+People who are looking for #Analytics #DataScience #Online #Offline. Please join our WhatsApp group "ExcelR Support" and get all details.
+https://chat.whatsapp.com/ELigcPJrQLL4Vwf4oV8ZmS
+(Please ignore if you are already been a part of ExcelR)</t>
+  </si>
+  <si>
+    <t>Hi All....Greetings from ExcelR!
+People who are looking for #Analytics #DataScience Online Live Program from 11th Oct'17 onwards @ 8:30 P.M. IST. Please join our WhatsApp group "ExcelR Support" and get all details.
+https://chat.whatsapp.com/ELigcPJrQLL4Vwf4oV8ZmS
+(Please ignore if you are already been a part of ExcelR)</t>
+  </si>
+  <si>
+    <t>Join The Data Incubator and Princeton University’s Sam Wang (@SamWangPhD) for the next installment of our free online webinar series, Data Science in 30 minutes!
+Can Math Help Repair Our Democracy? Using Simple Statistics to Establish a Standard for Partisan Gerrymandering. The event is on October 11th.
+In representative democracy, a winner-take-all system has a bug, in which legislators can choose their voters, instead of the other way around. This leads to noncompetitive races and distorted outcomes, for instance the ability of a minority of voters to elect a majority of representatives. This phenomenon is known as partisan gerrymandering. Can math help repair this situation? In this talk, Sam will show simple statistical tools that, if accepted by the U.S. Supreme Court, will repair a flaw in how we elect our government and help make legislatures more responsive to the will of voters.
+Signup today: space is limited!</t>
+  </si>
+  <si>
+    <t>Learn Data Science – Deep Learning in Python !
+#datascience #deeplearning #python #sponsored</t>
+  </si>
+  <si>
+    <t>[Tìm AE đồng chí Hội]
+--------------------------------------------
+#Startup #TuyenDung #Java #Web #DataScientist #Developer #SangTao
+Xin phép AD cho e được đăng bài này ạ :)
+Chào ae, mình đang triển khai một dự án startup khá tiềm năng. Và mang lại giá trị cao cho cộng đồng. Mình đang tìm kiếm những lập trình viên (Web / Java / Data scientist) giỏi, trên địa bàn Hà Nội, để cùng đồng hành, và giúp mình tham gia, phát triển dự án, và biến nó thành hiện thực :D
+-----------
+Nếu bạn đã chán ngắt khi phải làm những công việc outsource. Chỉ đâu làm đấy, muốn được thử sức trong môi trường Startup, được tự mình sáng tạo, và xây dựng nên những sản phẩm tuyệt vời, mang lại giá trị cao, giúp đỡ cho thật nhiều người.
+Hãy inbox với mình qua nick face này
+Hoặc liên hệ với mình qua email : thangphung.work@gmail.com
+nhé, mình sẽ cố trả lời nhanh chóng nhất có thể ;)
+Rất vui khi được cùng làm việc với bạn</t>
+  </si>
+  <si>
+    <t>The Data Incubator offers a free intensive 8 week fellowship that prepares masters students, PhDs, and postdocs in STEM and social science fields seeking industry careers as data scientists. The program is free for fellows and supported by sponsorships from hundreds of employers across multiple industries. The next fellowship dates are here- https://www.thedataincubator.com/fellowship.html#apply
+Anyone who has already obtained a masters or PhD degree or who is within one year of graduating with a masters or PhD is welcome to apply. Applications from international students are welcome.
+Apply today: https://www.thedataincubator.com/fellowship.html#apply</t>
+  </si>
+  <si>
+    <t>Data Scientist job opportunity in Techbase Vietnam</t>
+  </si>
+  <si>
+    <t>Hello guys,
+I think you might be interested in this event: how data is applied differently in governments, non-profits organizations vs. private companies?
+This is a webinar, shared by a data scientist whose experience spans from NGO, public sector to private sector, will share about the common problems he sees in implementing data, and how different organization structures look at solving these problems.
+https://r.holistics.io/webinar
+Please let me know if this event is appropriated to be shared here, even better if you can suggest what topics/speakers you would like to see in the future. Thanks a ton!</t>
+  </si>
+  <si>
+    <t>Python for Data Science and Machine Learning Bootcamp !
+Learn how to use NumPy, Pandas, Seaborn , Matplotlib , Plotly , Scikit-Learn , Machine Learning, Tensorflow , and more!
+#python #datascience #machinelearning #pandas #sponsored</t>
+  </si>
+  <si>
+    <t>hi all,
+Altium (www.altium.com) đang cần tuyển một senior data engineer để build up một Data Team ở Việt Nam cho product http://www.altium.com/octopart/overview. Các bạn có thể message hoặc email cho mình trung.nguyen@altium.com để có thêm thông tin chi tiết. Cảm ơn các bạn đã đọc bài.</t>
+  </si>
+  <si>
+    <t>Like this page to keep yourself updated on latest learning options in ICT and IT technologies (Mobile Apps, Cloud Computing, Big Data, Data Science) - https://www.facebook.com/NexgSkills</t>
+  </si>
+  <si>
+    <t>We are growing !
+What we did until now ?
+- Data Science Tutorials 📺
+- Amazing articles📜
+- Data Science training to children ! 😊
+- New trends from industry 💹
+- Full funded master degrees in UK🎓
+- and so on .....📚
+we will not stop !
+We are waiting for you to use, contribute and share our GitHub !
+https://github.com/eyuptkknt</t>
+  </si>
+  <si>
+    <t>Hi, Join Vietnam Data Science Group Click on the link below
+https://chat.whatsapp.com/LklSE9aZta30EgMV5SoB0a
+Benefits for joiners are
+1.Get Posted for Data Science Jobs in Vietnam and Others Countries
+2.Learn about Data Science Stuff
+3.Get Data Science Updates
+4.Get Data Science Projects</t>
+  </si>
+  <si>
+    <t>Data Science or Data Engineering ?
+https://data-economy.com/science-revolution-rise-data-engi…/</t>
+  </si>
+  <si>
+    <t>🔥🔥NÓNG NÓNG 🔥🔥
+Các bạn ơi! Bạn đã biết gì chưa???
+Ngoài các giải nhất - nhì - ba, Ban Tổ chức còn mở rộng trao tặng thêm 07 giải khuyến khích cho các bạn vào vòng chung kết, mỗi giải trị giá 5.000.000 đồng tiền mặt và 50% Học bổng tiếng anh tại trung tâm Language Plus Academix (LPA) có giá trị từ 4.000.000 đến 5.000.000 đồng.
+Quá hấp dẫn, nhanh tay đăng ký trước khi cổng đăng ký đóng lại bạn nhé.
+Link đăng ký ngay cuối bài viết.
+-----------------------------------------------------------
+Cùng điểm qua tất cả giải thường hiện giờ nhé.
+@01 GIẢI NHẤT:
+- Hiện kim: 60.000.000 đồng tiền mặt
+- Học bổng: 100% học bổng cao học tại Viện JVN tương đương 100.000.000 đồng và nhiều giải thưởng giá trị khác.
+- 100% học bổng tiếng Anh tại Trung tâm Language Plus Academix (LPA) có giá trị từ 8.000.000 đến 10.000.000 đồng.
+@01 GIẢI NHÌ:
+- Hiện kim: 40.000.000 đồng tiền mặt
+- Học bổng: 100% học bổng cao học tại Viện JVN tương đương 100.000.000 đồng và nhiều giải thưởng giá trị khác.
+- 100% Học bổng tiếng Anh tại Trung tâm Language Plus Academix (LPA) có giá trị từ 8.000.000 đến 10.000.000 đồng.
+@01 GIẢI BA:
+- Hiện kim: 20.000.000 đồng tiền mặt
+- Học bổng: 100% học bổng cao học tại Viện JVN tương đương 100.000.000 đồng và nhiều giải thưởng giá trị khác.
+- 100% Học bổng tiếng Anh tại Trung tâm Language Plus Academix (LPA) có giá trị từ 8.000.000 đến 10.000.000 đồng.
+🏵 07 Giải khuyến khích
+- Hiện kim: Mỗi giải 5.000.000 đồng
+- 50% Học bổng tiếng Anh tại trung tâm Language Plus Academix (LPA) có giá trị từ 4.000.000 đến 5.000.000 đồng.
+Ghi chú: Học viên học tại Viện JVN có cơ hội nhận được các học bổng danh giá của các trường tại Châu Âu như học bổng Eiffel của Pháp.
+------------------------------------------------------
+📝Đăng ký tham gia cuộc this ENTROPY 2017 ngay tại http://entropy.jvn.edu.vn/
+🎯 Các mốc thời gian quan trọng:
+⭐ Vòng loại: 03/06/2017 (thi online).
+🏅 Vòng bán kết: 17/06/2017 (thi trên giấy và viết codes).
+🏆 Vòng chung kết: 15/07/2017 (trình bày và bảo vệ đề án thực tế được BTC gửi trước cho thí sinh).
+Các bạn xem thêm nội dung và hình thức thi trong phần notes , sẽ có đầy đủ thông tin về thể lệ thi nhé.
+#ENTROPY #DataScience #JVNInstitute #IrishAid #JVN #ICT #QCF #VNU #DataAnalytics</t>
+  </si>
+  <si>
+    <t>🔥🔥NÓNG NÓNG 🔥🔥
+Các bạn ơi! Bạn đã biết gì chưa???
+Ngoài các giải nhất - nhì - ba, Ban Tổ chức còn mở rộng trao tặng thêm 07 giải khuyến khích cho các bạn vào vòng chung kết, mỗi giải trị giá 5.000.000 đồng tiền mặt và 50% Học bổng tiếng anh tại trung tâm Language Plus Academix (LPA) có giá trị từ 4.000.000 đến 5.000.000 đồng.
+Quá hấp dẫn, nhanh tay đăng ký trước khi cổng đăng ký đóng lại bạn nhé.
+Link đăng ký ngay cuối bài viết.
+-----------------------------------------------------------
+Cùng điểm qua tất cả giải thường hiện giờ nhé.
+@01 GIẢI NHẤT:
+- Hiện kim: 60.000.000 đồng tiền mặt
+- Học bổng: 100% học bổng cao học tại Viện JVN tương đương 100.000.000 đồng và nhiều giải thưởng giá trị khác.
+- 100% học bổng tiếng Anh tại Trung tâm Language Plus Academix (LPA) có giá trị từ 8.000.000 đến 10.000.000 đồng.
+@01 GIẢI NHÌ:
+- Hiện kim: 40.000.000 đồng tiền mặt
+- Học bổng: 100% học bổng cao học tại Viện JVN tương đương 100.000.000 đồng và nhiều giải thưởng giá trị khác.
+- 100% Học bổng tiếng Anh tại Trung tâm Language Plus Academix (LPA) có giá trị từ 8.000.000 đến 10.000.000 đồng.
+@01 GIẢI BA:
+- Hiện kim: 20.000.000 đồng tiền mặt
+- Học bổng: 100% học bổng cao học tại Viện JVN tương đương 100.000.000 đồng và nhiều giải thưởng giá trị khác.
+- 100% Học bổng tiếng Anh tại Trung tâm Language Plus Academix (LPA) có giá trị từ 8.000.000 đến 10.000.000 đồng.
+🏵 07 Giải khuyến khích
+- Hiện kim: Mỗi giải 5.000.000 đồng
+- 50% Học bổng tiếng Anh tại trung tâm Language Plus Academix (LPA) có giá trị từ 4.000.000 đến 5.000.000 đồng.
+Ghi chú: Học viên học tại Viện JVN có cơ hội nhận được các học bổng danh giá của các trường tại Châu Âu như học bổng Eiffel của Pháp.
+------------------------------------------------------
+📝Đăng ký tham gia cuộc this ENTROPY 2017 ngay tại http://entropy.jvn.edu.vn/
+🎯 Các mốc thời gian quan trọng:
+⭐ Vòng loại: 03/06/2017 (thi online).
+🏅 Vòng bán kết: 17/06/2017 (thi trên giấy và viết code).
+🏆 Vòng chung kết: 15/07/2017 (trình bày và bảo vệ đề án thực tế được BTC gửi trước cho thí sinh).
+Các bạn xem thêm nội dung và hình thức thi trong phần notes , sẽ có đầy đủ thông tin về thể lệ thi nhé.
+#ENTROPY #DataScience #JVNInstitute #IrishAid #JVN #ICT #QCF #VNU #DataAnalytics</t>
+  </si>
+  <si>
+    <t>data scientists do not have data from a software or third party software all the time. A great webinar about signal processing and machine learning techniques for sensor data analytics !
+https://www.youtube.com/watch?v=aVJp2ftMm5o</t>
+  </si>
+  <si>
+    <t>Các bạn quan tâm và yêu thích lĩnh vực Khoa hoc Phân tích Dữ liệu thì đăng kí tham gia nhé. Giải thưởng năm nay vô cùng hấp dẫn đang chờ đón những bạn thí sinh xuất sắc nhất.
+-----------------------------------
+📝Đăng ký tham gia cuộc this ENTROPY 2017 ngay tại http://entropy.jvn.edu.vn/
+🎯 Các mốc thời gian quan trọng:
+⭐ Vòng loại: 03/06/2017
+🏅 Vòng bán kết: 17/06/2017
+🏆 Vòng chung kết: 15/07/2017
+#ENTROPY #DataScience #JVNInstitute #IrishAid #JVN #ICT #QCF #VNU #DataAnalytics</t>
+  </si>
+  <si>
+    <t>🏆"Entropy - Khai phá dữ liệu", 2017 - Giải thưởng hấp dẫn🏆
+Ngoài việc cung cấp kiến thức, cũng như giúp các bạn thí sinh có cơ hội học tập kinh nghiệm từ các vấn đề thực tế về Khoa học Phân tích Dữ liệu của cuộc thi đưa ra. Ban Tổ chức còn dành cho các bạn thí sinh xuất sắc những giải thưởng giá trị. Không những thế giải thưởng sẽ được tăng thêm khi có thêm phần tài trợ từ nhiều đơn vị quan tâm và sẽ được Ban Tổ chức cập nhật liên tục.
+💥 Cùng điểm sơ qua giải thưởng năm nay có gì nhé:
+🥇 1.01 Giải nhất: Giá trị tiền mặt hơn 30.000.000 + 01 suất học bổng toàn chương trình cao học tại Viện John von Neumann - ĐHQG TP.HCM và nhiều giải thưởng giá trị khác.
+🥈 2. 01 Giải nhì: Giá trị tiền mặt hơn 20.000.000 + 01 suất học bổng tại Viện Jonh von Neumann và nhiều giải thưởng giá trị khác.
+🥉 3. 01 giải ba: Giá trị tiền mặt hơn 10.000.000 + 01 suất học bổng tại Viện Jonh von Neumann và nhiều giải thưởng giá trị khác.
+🏆 🏆🏆 VÀ CÒN NHIỀU GIẢI THƯỞNG HẤP DẪN KHÁC....
+--------------------------------------------
+📝Đăng ký tham gia cuộc this ENTROPY 2017 ngay tại http://entropy.jvn.edu.vn/
+🎯 Các mốc thời gian quan trọng:
+⭐ Vòng loại: 03/06/2017
+🏅 Vòng bán kết: 17/06/2017
+🏆 Vòng chung kết: 15/07/2017
+#ENTROPY #DataScience #JVNInstitute #IrishAid #JVN #ICT #QCF #VNU #DataAnalytics
+Chúc các bạn thành công!!!🔑🔑🔑</t>
+  </si>
+  <si>
+    <t>Why we need to have more and more data scientists ?
+https://www.youtube.com/watch?v=xCqfK5_VUZQ</t>
+  </si>
+  <si>
+    <t>Interested to know how big data and analytics can help power up your startup and business to greater heights, come for this event.
+Register here: https://ticketbox.vn/…/9cv9-tech-seminar-the-butterfly-effe…
+Speaker: Dang Van Tran, CEO, Butterfly Hub
+Topic: The Analytical Butterfly Effect
+Venue: Saigon Exhibition and Convention Centre
+Date: 12th - 14th April 2017
+Mr. Dang is a CEO &amp; Co-Founder at Butterfly Hub (Transform BEAUTY, BRAIN, BUSINESS through Data Science) and Co-Founder/Owner at MTFive (where entrepreneurs exchange and take advice from experts and mentors).</t>
+  </si>
+  <si>
+    <t>Get technology, jobs updates and certified on #bigdata #bigdataDevelopment #bigdataTesting #bigdataAdministration #hadoop #hbase #hive #mongodb #DataMining #PredictiveAnalytics #DataScience #MachineLearning #DeepLearning #Scala #Python - ***www.facebook.com/bigdatatrainings***. Certification details - ***www.exuberantsolutions.com/informationmanagment.htm***</t>
+  </si>
+  <si>
+    <t>[English below]
+9cv9 vinh hạnh mời anh Trần Đằng Vân - Nhà Đồng sáng lập và CEO của Butterfly Hub (Chuyên tạo app về làm đẹp dựa trên dữ liệu phân tích) và Đồng sáng lập MITFive (nơi trao đổi và cố vấn cho các Doanh nhân về khởi nghiệp và kinh doanh). Anh được mời với tư cách là diễn giả cho seminar được tổ chức song song với cuộc thi Hackathon.
+Nhanh lập nhóm và đăng ký dự thi Hackathon tại https://goo.gl/CQlUS0
+Ngày hết hạn: 31/03/2017
+Mọi thắc mắc khác về cuộc thi xin liên hệ trực tiếp bằng cách
+- Inbox
+- Bình luận bên dưới
+- Gửi email về hackathon@9cv9.com
+- Đường dây nóng 0931 43 6561
+[English version]
+It’s our pleasure to have Mr. Tran Dang Van as our guest speaker for seminar held at the same time with the Hackathon competition. He is a CEO &amp; Co-Founder at Buffterfly Hub (Transform BEAUTY, BRAIN, BUSINESS through Data Science) and Co-Founder/Owner at MTFive (where entrepreneurs exchange and take advice from experts and mentors).
+Quickly form your team and join our Hackathon at the link: https://goo.gl/CQlUS0
+Deadline: 31/03/2017
+All questions you might have, please reach us by:
+- Inbox
+- Leave comments below
+- Email to hackathon@9cv9.com
+- Hotline 0931 43 6561</t>
+  </si>
+  <si>
+    <t>Microsoft approach about IoT and Predictive Analytics
+https://www.youtube.com/watch?v=N495zL_uWGU</t>
+  </si>
+  <si>
+    <t>Happy New Year everyone! Are you interested in an opportunity to discuss about Data Science, its trends and interesting use cases with the only Vietnamese Kaggle Grand Master Tam T. Nguyen (google if you haven't heard about this famous platform for Data Science competition). We have such a precious opportunity later this month when Tam comes back Vietnam to visit his family. While we are working on the time and location for this event, please let us know how many of you are coming to the event so that we can have a good arrangement. Duy Ngan Le Thuan Le Vinh Huynh</t>
+  </si>
+  <si>
+    <t>Data Scientist for Security team --&gt; Accept challenges with VNG now!
+http://bit.ly/2k9hpcC
+[You can ask anything about VNG Recruitment at M: huongvt@vng.com.vn/ Skype: huong.vuthi]</t>
+  </si>
+  <si>
+    <t>CHÚC MỪNG NĂM MỚI 2017!
+Chúc các thành viên của Data Science &amp; Big Data Vietnam group một năm mới mạnh khỏe và thành đạt ở phía trước. Năm 2016 đánh dấu sự phát triển vượt bậc trong lĩnh vực Data Science &amp; Big Data trên thế giới. Trong bối cảnh đó, group này ra đời ở Vietnam nhằm mục đích tạo sân chơi cho người Việt trong và ngoài nước chia sẻ và học hỏi lẫn nhau trong lĩnh vực này.
+Trong năm qua, Group đã tổ chức khá nhiều event thành công. Rất cám ơn các anh chị em đã tham gia tổ chức Thuan Le, Qang Hieu, và Vinh Huynh. Cám ơn bạn Nhan Cach Dang và rất nhiều anh chị em đã giúp đỡ trong việc tổ chức, tạo điều kiện cơ sở vật chất rất tốt cho các events được tổ chức hoàn toàn miễn phí. Cám ơn tất cả các bạn đã nhiệt tình tham gia.
+Năm qua cũng đánh dấu sự phát triển vượt bậc của lĩnh vực này trong nước với sự tham gia của nhiều tổ chức và công ty. Việc tuyển dụng diễn ra rất sôi nổi với nhiều công ty nước ngoài mở chi nhánh ở VN và tuyển dụng lĩnh vực này.
+Người Việt chúng ta cũng có những anh chị rất thành công trong lĩnh vực này. Nếu các bạn tham gia Kaggle, một sân chơi tuyệt rất tốt để rèn luyện kỹ năng, có lẽ sẽ biết có một anh người Việt năm 2016 đã lên Grandmaster của Kaggle. Anh ấy hiện trong TOP 40 của Kaggle và có lẽ là nhân vật số 1 của Đong Nam A và VN theo xếp hạng của Kaggle trong lĩnh vực này. Hy vọng Tam T. Nguyen chia sẻ để anh em học hỏi từ anh.
+Năm mới, hy vọng chúng ta sẽ tổ chức được nhiều event hơn. Mong tất cả các bạn cùng chung tay để đưa cộng đồng phát triển hơn nữa trong lĩnh vực này - cc Duy Ngan Le.</t>
+  </si>
+  <si>
+    <t>Những chuyển biến và thay đổi ngày nay dẫn đến sự khó nhận biết đâu là những công việc của Data Engineer/ Data Science/ Software engineer thực sự. Cùng tìm hiểu mọi người nhé.</t>
+  </si>
+  <si>
+    <t>Road to data scientist.</t>
+  </si>
+  <si>
+    <t>Chào anh/chị/bạn trong nhóm Data Science &amp; Big Data!
+Nhóm Grokking có tổ chức khoá học Data Engineering ở Việt Nam và đang tìm guest lecture (buổi giảng khách mời) cho buổi học vào thứ 3 ngày 22 tháng 11 về chủ đề trong Data Science:
+- Recommendation System
+- Predictive Analytics &amp; Machine Learning
+- Experience in Kaggle competition
+- Deep Learning
+- etc
+Có anh chị nào quan tâm chia sẻ với các bạn học viên trong khoá học thì PM em! :)</t>
+  </si>
+  <si>
+    <t>Data Scientist is recognized as the best job in America in 2016 with the average annual salary above 100k</t>
+  </si>
+  <si>
+    <t>Blueseed Digital đang cần Lead của team Data Science, phát triển sản phẩm DMP cho ngành quảng cáo trực tuyến. Các bác có quan tâm vui lòng inbox hoặc liên hệ mình ở hont@blueseed.tv, rất sẵn lòng mời cafe để giới thiệu chi tiết dự án. Nhờ bác Quang Hieu Vu giới thiệu giúp với, về chung Copac cho vui :)</t>
+  </si>
+  <si>
+    <t>Cơ hội cho anh em
+--------
+Hiện tại Viettel đang cần tìm kiếm nhiều vị trí nhân viên, chuyên gia ở trong các mảng sau:
+3. Lập trình viên (02 người), chuyên gia (02 người) Big data, Data Scientist, NLP
+Yêu cầu chung:
+- Tốt nghiệp Đại học chính quy chuyên ngành CNTT, ĐTVT.
+o Với vị trí chuyên gia: Có ít nhất 5-7 năm kinh nghiệm làm việc tại vị trí tương đương.
+o Với sinh viên mới ra trường hoặc có dưới 1 năm kinh nghiệm: Yêu cầu tốt nghiệp bằng Giỏi trở lên, có nền tảng học vấn tốt. Ưu tiên các ứng viên đạt các giải thưởng quốc gia và quốc tế. Ưu tiên ứng viên tốt nghiệp đại học, thạc sỹ, tiến sỹ tại nước ngoài.
+- Tiếng anh Toeic ≥ 650 điểm hoặc tương đương, tin học văn phòng thành thạo.
+Loại hình công việc: Toàn thời gian cố định
+Nơi làm việc: Hà Nội
+Mức lương:
+o Chuyên gia Big data, Data Scientist, NLP: 50-80tr/ tháng
+Quyền lợi:
+- Ứng viên được chọn sẽ được làm việc trong môi trường chuyên nghiệp, phát triển, năng động có nhiều cơ hội thăng tiến, được làm việc với các chuyên gia hàng đầu trong lĩnh vực.
+- Chế độ lương, thưởng, chính sách đãi ngộ thu hút và hấp dẫn hàng đầu Việt Nam theo năng lực và kết quả công việc của từng cá nhân; được hưởng Bảo hiểm xã hội, Bảo hiểm y tế, Bảo hiểm thất nghiệp theo quy định của Quân đội và Luật Lao động.
+- Cơ hội học tập, nghiên cứu, làm việc trong nước và các nước trên thế giới.
+Cách thức gửi hồ sơ: Các bạn quan tâm vui lòng gửi CV cho Ms Trần Anh – 08689.20488 – AnhTT7@viettel.com.vn / anhtran4688@gmail.com</t>
+  </si>
+  <si>
+    <t>Zalora đang tuyển vài vị trí Data Engineer cho Data Science team. Các bạn có thể thấy job description ở đây: https://zalora.taleo.net/careersection/prof/jobdetail.ftl…. Ngoài ra, team đang cần tuyển GẤP một bạn biết về Matrix Factorization và Recommendation System để thay thế một bạn sẽ chuyển sang làm ở Google Australia tháng tới.
+Zalora Data Science là một team khá mới được thành lập hơn 1 năm nay với trụ sở chính ở Singapore và Việt Nam. Các bạn trong team ở VN cũng là những người tốt nghiệp PhD ở nước ngoài hay là những sinh viên hàng đầu trong nước.
+Nếu bạn hứng thú với vị trí này ở VN thì liên lạc với anh Quang Hieu Vu, còn ở Singapore thì liên lạc với mình. Data Science là một team nhỏ với khoảng 10 người hiện nay, nhưng sẽ grow nhanh và có rất nhiều cơ hội nếu các bạn đam mê lĩnh vực này.</t>
+  </si>
+  <si>
+    <t>THAM GIA LĨNH VỰC DATA SCIENCE TỪ NHỮNG NGÀNH KHÁC NHAU
+Data Science được xem là "sexiest job of the 21st century" và dự báo về nhu cầu tương lại của ngành này rất triển vọng. Vì vậy, hiện nay rất nhiều người ở lĩnh vực khác nhau muốn tham gia vào lĩnh vực này. Data science là ngành khá rộng và đòi hỏi nhiều kỹ năng khác nhau, vì vậy hầu như làm ở ngành nào bạn cũng có thể tham gia vào lĩnh vực này.
+Bài viết dưới đây tuy không đầy đủ nhưng khá khái quát về việc làm sao tham gia vào data science từ những lĩnh vực khác nhau: từ java, python, hadoop developer, statistician, tới business analysis: http://hortonworks.com/b…/how-to-get-started-in-data-science.
+Có một vài người cho rằng để tham gia lĩnh vực này, đòi hỏi bạn phải học về computer science hay thậm chí phải có bằng PhD. Theo mình đây là quan niệm sai lầm. Đây chỉ là những tiêu chí "nice to have" chứ không phải bắt buộc. Mình cho rằng đam mê là quan trọng nhất, không chỉ cho data science mà bất kỳ ngành nào, để đạt được thành công lâu dài trong sự nghiệp.
+--- with Quang Hieu Vu, Thuan Le, Thuy Ngoc Le</t>
+  </si>
+  <si>
+    <t>BÀN VỀ NHU CẦU DATA SCIENTIST Ở VIỆT NAM
+Data scientist được xem là “sexiest job of the 21st century" và nhu cầu về data scientist sẽ được dự đoán là sẽ thiếu trầm trọng trong tương lai. McKinsey dự đoán là sẽ thiếu khoảng 50% data scientist vào năm 2018 trên toàn thế giới.
+Việt nam mình hiện nay không có một thống kê chính thức về nhu cầu demand và supply trong lĩnh vực này. Tuy nhiên, theo "đoán mò" của mình, thì nhu cầu trong tương lai là thiếu trầm trọng. Lý do chính cho việc thiếu nhân lực là các trường đại học rất chậm thay đổi và nhận thức của các công ty chưa kịp với sự phát triển trong lĩnh vực này.
+Theo kinh nghiệm của mình ở Zalora, thời gian qua mặc dù rất ráo riết trong quá việc tuyển dụng, anh Quang Hieu Vu và mình cũng chỉ tuyển được 8 người cho nhóm ở VN, trong đó có 3 bạn ở nước ngoài về. Cũng may là turnover rate của nhóm không cao, chưa có bạn nào nhảy việc, trừ một bạn sẽ sang Google Australia làm trong tháng tới.
+http://techcrunch.com/…/how-to-stem-the-global-shortage-of…/
+---- with Duy Ngan Le; Thuan Le; Thuy Ngoc Le</t>
+  </si>
+  <si>
+    <t>The purpose of this group is to create a community for Vietnamese engineers and scientists to discuss and exchange ideas on Data Science, Big Data and anything related to the management and usage of data.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2643,10 +2991,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,6 +3008,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2700,7 +3062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2732,9 +3094,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2766,6 +3129,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2941,1752 +3305,2664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="100.28515625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
